--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400835.3003224196</v>
+        <v>390616.0277772415</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13813742.31419703</v>
+        <v>13813742.31419702</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.66137551878161</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.3621491644612</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G14" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>111.1613841420478</v>
       </c>
       <c r="U15" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>107.3621491644612</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,64 +1849,64 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>107.3621491644612</v>
+      </c>
+      <c r="T17" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="F17" t="n">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>121.8916316581077</v>
-      </c>
-      <c r="G17" t="n">
-        <v>107.3621491644612</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>107.3621491644612</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U18" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>121.8916316581077</v>
-      </c>
-      <c r="W18" t="n">
-        <v>121.8916316581077</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>107.3621491644612</v>
+      </c>
+      <c r="U19" t="n">
         <v>121.8916316581077</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>121.8916316581077</v>
@@ -2067,7 +2067,7 @@
         <v>121.8916316581077</v>
       </c>
       <c r="X19" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U20" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586701</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y21" t="n">
-        <v>84.87035142859409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.8916316581076</v>
+        <v>107.3621491644612</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>379.1724351662483</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>291.6263286776432</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>26.97247904985714</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>14.44623607309301</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U23" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>117.3328552984554</v>
       </c>
       <c r="H24" t="n">
-        <v>4.234164352848957</v>
+        <v>72.67297504339531</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.2298201210639</v>
+        <v>36.79100943051706</v>
       </c>
       <c r="T24" t="n">
         <v>169.0616538150257</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.83521108255767</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I25" t="n">
-        <v>66.07795407122337</v>
+        <v>93.28083502046276</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.12414163960318</v>
       </c>
       <c r="S25" t="n">
         <v>178.4870667059124</v>
       </c>
       <c r="T25" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5146046033557</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>351.9466737015522</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>195.4242458073131</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>36.79100943051751</v>
+        <v>36.79100943051571</v>
       </c>
       <c r="T27" t="n">
         <v>169.0616538150257</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.81777375891853</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>142.5464898706615</v>
       </c>
       <c r="I28" t="n">
-        <v>93.28083502046275</v>
+        <v>10.19801283250243</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.12414163960318</v>
       </c>
       <c r="S28" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>227.8942544023992</v>
@@ -2772,7 +2772,7 @@
         <v>282.5146046033557</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>117.8937614788742</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.1783618148989</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>26.97247904985714</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>102.3490861765423</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>66.64321528967477</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.2298201210639</v>
+        <v>36.79100943051706</v>
       </c>
       <c r="T30" t="n">
         <v>169.0616538150257</v>
@@ -2952,19 +2952,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>86.30157696335816</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H31" t="n">
         <v>142.5464898706615</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.12414163960318</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4870667059124</v>
+        <v>18.03067156652844</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U31" t="n">
         <v>282.5146046033557</v>
@@ -3018,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>222.721529239764</v>
+        <v>43.32805002384604</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3125,7 +3125,7 @@
         <v>117.3328552984554</v>
       </c>
       <c r="H33" t="n">
-        <v>4.234164352848957</v>
+        <v>72.67297504339531</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.2298201210639</v>
+        <v>36.79100943051706</v>
       </c>
       <c r="T33" t="n">
         <v>169.0616538150257</v>
@@ -3189,10 +3189,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H34" t="n">
-        <v>69.34898275340535</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>93.28083502046275</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U34" t="n">
         <v>282.5146046033557</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>134.4174252780204</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.62572283795002</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.84101104803872</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.9669809783891</v>
+        <v>157.8658511470768</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>105.2298201210639</v>
+        <v>36.79100943051571</v>
       </c>
       <c r="T36" t="n">
         <v>169.0616538150257</v>
       </c>
       <c r="U36" t="n">
-        <v>139.4232824837561</v>
+        <v>207.8620931743026</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3432,19 +3432,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>10.02886315185576</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.2918606802396</v>
       </c>
       <c r="H37" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.28083502046275</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.12414163960318</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T37" t="n">
         <v>227.8942544023992</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5146046033557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8202665199864</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>233.2040327525548</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>354.1110998502312</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>99.84101104803874</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U38" t="n">
         <v>252.9669809783891</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>117.3328552984554</v>
       </c>
       <c r="H39" t="n">
-        <v>4.234164352848957</v>
+        <v>4.234164352848078</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,16 +3672,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.2918606802396</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>93.28083502046276</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.12414163960318</v>
       </c>
       <c r="S40" t="n">
-        <v>61.22943740021314</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T40" t="n">
         <v>227.8942544023992</v>
@@ -3723,13 +3723,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>96.23408569978443</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>18.73640570444598</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>406.1783618148989</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T41" t="n">
-        <v>187.7672168207133</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3830,7 +3830,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>54.7486773651527</v>
       </c>
       <c r="G42" t="n">
         <v>117.3328552984554</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>36.79100943051706</v>
+        <v>105.2298201210639</v>
       </c>
       <c r="T42" t="n">
         <v>169.0616538150257</v>
@@ -3903,7 +3903,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>149.0805080763915</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.76130516316866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>18.96637513869451</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>156.1301294044302</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>291.6263286776432</v>
       </c>
       <c r="I44" t="n">
-        <v>26.97247904985716</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4045,7 +4045,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>54.7486773651527</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>117.3328552984554</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>105.2298201210639</v>
+        <v>36.79100943051616</v>
       </c>
       <c r="T45" t="n">
         <v>169.0616538150257</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>150.8002995219159</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.2918606802396</v>
       </c>
       <c r="H46" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>93.28083502046276</v>
@@ -4185,13 +4185,13 @@
         <v>65.12414163960318</v>
       </c>
       <c r="S46" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5146046033557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>29.3563691476513</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.5230850396134</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="C11" t="n">
-        <v>215.4002247788985</v>
+        <v>241.3208061110013</v>
       </c>
       <c r="D11" t="n">
-        <v>215.4002247788985</v>
+        <v>241.3208061110013</v>
       </c>
       <c r="E11" t="n">
-        <v>215.4002247788985</v>
+        <v>241.3208061110013</v>
       </c>
       <c r="F11" t="n">
-        <v>215.4002247788985</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4002247788985</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="H11" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="J11" t="n">
-        <v>13.67191254441019</v>
+        <v>13.67191254441008</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388319</v>
+        <v>52.52788553388297</v>
       </c>
       <c r="L11" t="n">
         <v>124.7183011151467</v>
@@ -5053,40 +5053,40 @@
         <v>225.6291823919087</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730483</v>
+        <v>331.1718826730485</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990622</v>
+        <v>422.1649418990624</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913169</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="R11" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="S11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="T11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="U11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="V11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="W11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="X11" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="Y11" t="n">
-        <v>364.443666371716</v>
+        <v>364.4436663717163</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="C12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="D12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="E12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="F12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="G12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="H12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.75133053264863</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065735</v>
+        <v>43.63722270065733</v>
       </c>
       <c r="L12" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502221</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241156</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905287</v>
+        <v>333.1250381905288</v>
       </c>
       <c r="O12" t="n">
-        <v>421.986602600962</v>
+        <v>421.9866026009623</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561082</v>
+        <v>480.7393491561086</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="R12" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="S12" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="T12" t="n">
-        <v>364.443666371716</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="U12" t="n">
-        <v>241.3208061110011</v>
+        <v>379.1199113147936</v>
       </c>
       <c r="V12" t="n">
-        <v>118.1979458502862</v>
+        <v>379.1199113147936</v>
       </c>
       <c r="W12" t="n">
-        <v>9.751330532648618</v>
+        <v>379.1199113147936</v>
       </c>
       <c r="X12" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540786</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="C13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="D13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="E13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="F13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="G13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="H13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
       <c r="J13" t="n">
-        <v>24.97459687068094</v>
+        <v>24.97459687068097</v>
       </c>
       <c r="K13" t="n">
-        <v>24.97459687068094</v>
+        <v>145.6473122122077</v>
       </c>
       <c r="L13" t="n">
-        <v>145.6473122122076</v>
+        <v>266.3200275537345</v>
       </c>
       <c r="M13" t="n">
-        <v>266.3200275537342</v>
+        <v>386.9927428952613</v>
       </c>
       <c r="N13" t="n">
-        <v>386.9927428952609</v>
+        <v>486.7040067051191</v>
       </c>
       <c r="O13" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324314</v>
       </c>
       <c r="S13" t="n">
-        <v>364.443666371716</v>
+        <v>379.1199113147936</v>
       </c>
       <c r="T13" t="n">
-        <v>364.443666371716</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="U13" t="n">
-        <v>241.3208061110011</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="V13" t="n">
-        <v>118.1979458502862</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="W13" t="n">
-        <v>118.1979458502862</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="X13" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648627</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="D14" t="n">
-        <v>379.1199113147933</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="E14" t="n">
-        <v>255.9970510540784</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="F14" t="n">
-        <v>132.8741907933635</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="G14" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441019</v>
+        <v>13.67191254441008</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388316</v>
+        <v>52.52788553388297</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151468</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919088</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730484</v>
+        <v>331.1718826730483</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990622</v>
+        <v>422.1649418990623</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913165</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540785</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.751330532648618</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="C15" t="n">
-        <v>9.751330532648618</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="D15" t="n">
-        <v>9.751330532648618</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="E15" t="n">
-        <v>9.751330532648618</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="F15" t="n">
-        <v>9.751330532648618</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648616</v>
+        <v>9.751330532648403</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065711</v>
       </c>
       <c r="L15" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502218</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241154</v>
       </c>
       <c r="N15" t="n">
         <v>333.1250381905286</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009619</v>
+        <v>421.986602600962</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561082</v>
+        <v>480.7393491561084</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324309</v>
+        <v>375.2823002263222</v>
       </c>
       <c r="U15" t="n">
-        <v>379.1199113147933</v>
+        <v>375.2823002263222</v>
       </c>
       <c r="V15" t="n">
-        <v>255.9970510540784</v>
+        <v>375.2823002263222</v>
       </c>
       <c r="W15" t="n">
-        <v>132.8741907933635</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="X15" t="n">
-        <v>132.8741907933635</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.751330532648618</v>
+        <v>252.1594399656072</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8741907933635</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="C16" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="D16" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="E16" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J16" t="n">
-        <v>24.97459687068094</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K16" t="n">
-        <v>145.6473122122076</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L16" t="n">
-        <v>153.471767545055</v>
+        <v>130.4240458741753</v>
       </c>
       <c r="M16" t="n">
-        <v>188.6423781984189</v>
+        <v>246.2210959493777</v>
       </c>
       <c r="N16" t="n">
-        <v>309.3150935399456</v>
+        <v>366.8938112909044</v>
       </c>
       <c r="O16" t="n">
-        <v>310.1776134672577</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="P16" t="n">
-        <v>430.8503288087844</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S16" t="n">
-        <v>364.443666371716</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T16" t="n">
-        <v>241.3208061110011</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="U16" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V16" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="W16" t="n">
-        <v>132.8741907933635</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="X16" t="n">
-        <v>132.8741907933635</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.8741907933635</v>
+        <v>255.9970510540785</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>487.5665266324309</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="C17" t="n">
-        <v>487.5665266324309</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="D17" t="n">
-        <v>364.443666371716</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="E17" t="n">
-        <v>241.3208061110011</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="F17" t="n">
-        <v>118.1979458502862</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G17" t="n">
         <v>9.751330532648618</v>
@@ -5518,49 +5518,49 @@
         <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388285</v>
+        <v>52.52788553388295</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N17" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730483</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990622</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913165</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324309</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R17" t="n">
         <v>487.5665266324309</v>
       </c>
       <c r="S17" t="n">
-        <v>487.5665266324309</v>
+        <v>379.1199113147932</v>
       </c>
       <c r="T17" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="U17" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="V17" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="W17" t="n">
-        <v>487.5665266324309</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X17" t="n">
-        <v>487.5665266324309</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="Y17" t="n">
-        <v>487.5665266324309</v>
+        <v>132.8741907933635</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C18" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D18" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="E18" t="n">
         <v>9.751330532648618</v>
@@ -5597,25 +5597,25 @@
         <v>9.751330532648618</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O18" t="n">
         <v>421.9866026009618</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561082</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="R18" t="n">
         <v>487.5665266324309</v>
@@ -5624,22 +5624,22 @@
         <v>487.5665266324309</v>
       </c>
       <c r="T18" t="n">
-        <v>379.1199113147933</v>
+        <v>364.4436663717159</v>
       </c>
       <c r="U18" t="n">
-        <v>255.9970510540784</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="V18" t="n">
-        <v>132.8741907933635</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="W18" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="X18" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502862</v>
       </c>
     </row>
     <row r="19">
@@ -5673,25 +5673,25 @@
         <v>9.751330532648618</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648618</v>
+        <v>24.97459687068095</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648618</v>
+        <v>145.6473122122076</v>
       </c>
       <c r="L19" t="n">
-        <v>130.4240458741753</v>
+        <v>173.4138314609525</v>
       </c>
       <c r="M19" t="n">
-        <v>251.0967612157019</v>
+        <v>294.0865468024791</v>
       </c>
       <c r="N19" t="n">
-        <v>371.7694765572286</v>
+        <v>309.3150935399456</v>
       </c>
       <c r="O19" t="n">
-        <v>487.5665266324309</v>
+        <v>310.1776134672577</v>
       </c>
       <c r="P19" t="n">
-        <v>487.5665266324309</v>
+        <v>430.8503288087844</v>
       </c>
       <c r="Q19" t="n">
         <v>487.5665266324309</v>
@@ -5703,16 +5703,16 @@
         <v>487.5665266324309</v>
       </c>
       <c r="T19" t="n">
-        <v>364.443666371716</v>
+        <v>379.1199113147932</v>
       </c>
       <c r="U19" t="n">
-        <v>364.443666371716</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="V19" t="n">
-        <v>241.3208061110011</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="W19" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="X19" t="n">
         <v>9.751330532648618</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.8741907933634</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="C20" t="n">
-        <v>132.8741907933634</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="D20" t="n">
-        <v>9.751330532648609</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="E20" t="n">
-        <v>9.751330532648609</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="F20" t="n">
-        <v>9.751330532648609</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441008</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388282</v>
+        <v>52.52788553388299</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730479</v>
+        <v>331.1718826730485</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990623</v>
       </c>
       <c r="P20" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913165</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="T20" t="n">
-        <v>487.5665266324305</v>
+        <v>364.443666371716</v>
       </c>
       <c r="U20" t="n">
-        <v>379.1199113147929</v>
+        <v>364.443666371716</v>
       </c>
       <c r="V20" t="n">
-        <v>379.1199113147929</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="W20" t="n">
-        <v>255.9970510540782</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="X20" t="n">
-        <v>132.8741907933634</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="Y20" t="n">
-        <v>132.8741907933634</v>
+        <v>241.3208061110011</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>155.5931784053503</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="C21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="D21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="E21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="F21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="G21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="H21" t="n">
-        <v>32.47031814463549</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241155</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009619</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561082</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="T21" t="n">
-        <v>364.4436663717157</v>
+        <v>364.443666371716</v>
       </c>
       <c r="U21" t="n">
-        <v>364.4436663717157</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="V21" t="n">
-        <v>364.4436663717157</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="W21" t="n">
-        <v>364.4436663717157</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X21" t="n">
-        <v>364.4436663717157</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="Y21" t="n">
-        <v>278.7160386660651</v>
+        <v>9.751330532648618</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="C22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="D22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="E22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="F22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="K22" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="L22" t="n">
-        <v>125.5483806078508</v>
+        <v>125.5483806078509</v>
       </c>
       <c r="M22" t="n">
-        <v>246.2210959493773</v>
+        <v>246.2210959493776</v>
       </c>
       <c r="N22" t="n">
-        <v>366.8938112909039</v>
+        <v>366.8938112909042</v>
       </c>
       <c r="O22" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="P22" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="S22" t="n">
-        <v>487.5665266324305</v>
+        <v>364.443666371716</v>
       </c>
       <c r="T22" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="U22" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110011</v>
       </c>
       <c r="V22" t="n">
-        <v>487.5665266324305</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="W22" t="n">
-        <v>364.4436663717157</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="X22" t="n">
-        <v>241.3208061110009</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="Y22" t="n">
-        <v>118.1979458502861</v>
+        <v>9.751330532648618</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1184.652392811968</v>
+        <v>1214.384565386639</v>
       </c>
       <c r="C23" t="n">
-        <v>1184.652392811968</v>
+        <v>1214.384565386639</v>
       </c>
       <c r="D23" t="n">
-        <v>1184.652392811968</v>
+        <v>828.9434366033072</v>
       </c>
       <c r="E23" t="n">
-        <v>782.0688679285124</v>
+        <v>426.3599117198517</v>
       </c>
       <c r="F23" t="n">
-        <v>365.1744294584901</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="G23" t="n">
-        <v>365.1744294584901</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="H23" t="n">
-        <v>70.60238028915353</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I23" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J23" t="n">
         <v>166.5581231323113</v>
@@ -5998,7 +5998,7 @@
         <v>678.154355593648</v>
       </c>
       <c r="M23" t="n">
-        <v>1025.838119611197</v>
+        <v>1025.838119611198</v>
       </c>
       <c r="N23" t="n">
         <v>1382.146745868977</v>
@@ -6013,28 +6013,28 @@
         <v>2129.19382092726</v>
       </c>
       <c r="R23" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S23" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="T23" t="n">
-        <v>2153.280440148636</v>
+        <v>1956.986120394518</v>
       </c>
       <c r="U23" t="n">
-        <v>1897.758237140162</v>
+        <v>1956.986120394518</v>
       </c>
       <c r="V23" t="n">
-        <v>1555.65142784368</v>
+        <v>1614.879311098036</v>
       </c>
       <c r="W23" t="n">
-        <v>1184.652392811968</v>
+        <v>1614.879311098036</v>
       </c>
       <c r="X23" t="n">
-        <v>1184.652392811968</v>
+        <v>1614.879311098036</v>
       </c>
       <c r="Y23" t="n">
-        <v>1184.652392811968</v>
+        <v>1614.879311098036</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>707.7739161251243</v>
+        <v>776.904027933757</v>
       </c>
       <c r="C24" t="n">
-        <v>557.1196856852165</v>
+        <v>626.2497974938492</v>
       </c>
       <c r="D24" t="n">
-        <v>427.0307183066968</v>
+        <v>496.1608301153295</v>
       </c>
       <c r="E24" t="n">
-        <v>290.5842274175845</v>
+        <v>359.7143392262172</v>
       </c>
       <c r="F24" t="n">
-        <v>166.1524213007164</v>
+        <v>235.282533109349</v>
       </c>
       <c r="G24" t="n">
-        <v>47.63438564571092</v>
+        <v>116.7644974543436</v>
       </c>
       <c r="H24" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I24" t="n">
-        <v>46.97993996379397</v>
+        <v>46.97993996379395</v>
       </c>
       <c r="J24" t="n">
-        <v>108.1258151852888</v>
+        <v>302.8608101650161</v>
       </c>
       <c r="K24" t="n">
-        <v>263.4344911817381</v>
+        <v>458.1694861614653</v>
       </c>
       <c r="L24" t="n">
-        <v>502.3758240908636</v>
+        <v>697.1108190705909</v>
       </c>
       <c r="M24" t="n">
-        <v>793.7910537732073</v>
+        <v>988.5260487529345</v>
       </c>
       <c r="N24" t="n">
-        <v>1102.284796647399</v>
+        <v>1297.019791627126</v>
       </c>
       <c r="O24" t="n">
-        <v>1370.053435353441</v>
+        <v>1564.788430333168</v>
       </c>
       <c r="P24" t="n">
-        <v>1740.540772030939</v>
+        <v>1994.68046835358</v>
       </c>
       <c r="Q24" t="n">
-        <v>2167.796555931284</v>
+        <v>2097.49288907468</v>
       </c>
       <c r="R24" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S24" t="n">
-        <v>2061.579850201191</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T24" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U24" t="n">
-        <v>1680.848792636213</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V24" t="n">
-        <v>1458.30879100728</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W24" t="n">
-        <v>1228.191545140567</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X24" t="n">
-        <v>1038.884467490578</v>
+        <v>1108.014579299211</v>
       </c>
       <c r="Y24" t="n">
-        <v>859.5702505660856</v>
+        <v>928.7003623747183</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280.3079780427262</v>
+        <v>629.9302520499829</v>
       </c>
       <c r="C25" t="n">
-        <v>110.1028601087154</v>
+        <v>629.9302520499829</v>
       </c>
       <c r="D25" t="n">
-        <v>110.1028601087154</v>
+        <v>629.9302520499829</v>
       </c>
       <c r="E25" t="n">
-        <v>110.1028601087154</v>
+        <v>605.8542812595206</v>
       </c>
       <c r="F25" t="n">
-        <v>110.1028601087154</v>
+        <v>448.5283464724936</v>
       </c>
       <c r="G25" t="n">
-        <v>110.1028601087154</v>
+        <v>281.5668710379082</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1028601087154</v>
+        <v>137.5805176331996</v>
       </c>
       <c r="I25" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J25" t="n">
         <v>103.150439481412</v>
@@ -6162,37 +6162,37 @@
         <v>1446.5759467047</v>
       </c>
       <c r="O25" t="n">
-        <v>1785.271814574476</v>
+        <v>1788.345072747387</v>
       </c>
       <c r="P25" t="n">
-        <v>2058.36847380031</v>
+        <v>2061.441731973222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="R25" t="n">
-        <v>2167.872597798225</v>
+        <v>2102.0906365461</v>
       </c>
       <c r="S25" t="n">
-        <v>1987.582631428616</v>
+        <v>1921.800670176492</v>
       </c>
       <c r="T25" t="n">
-        <v>1757.386414860536</v>
+        <v>1921.800670176492</v>
       </c>
       <c r="U25" t="n">
-        <v>1472.018127382399</v>
+        <v>1636.432382698355</v>
       </c>
       <c r="V25" t="n">
-        <v>1206.038782203223</v>
+        <v>1370.453037519179</v>
       </c>
       <c r="W25" t="n">
-        <v>922.7083801344011</v>
+        <v>1087.122635450356</v>
       </c>
       <c r="X25" t="n">
-        <v>688.6280579173841</v>
+        <v>853.0423132333395</v>
       </c>
       <c r="Y25" t="n">
-        <v>465.5159967340275</v>
+        <v>629.9302520499829</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>831.3821056227523</v>
+        <v>428.7985807392967</v>
       </c>
       <c r="C26" t="n">
-        <v>831.3821056227523</v>
+        <v>428.7985807392967</v>
       </c>
       <c r="D26" t="n">
-        <v>445.94097683942</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="E26" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="F26" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="G26" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="H26" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="I26" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="J26" t="n">
-        <v>166.5581231323115</v>
+        <v>166.5581231323109</v>
       </c>
       <c r="K26" t="n">
-        <v>384.1840296061609</v>
+        <v>384.1840296061599</v>
       </c>
       <c r="L26" t="n">
-        <v>678.1543555936481</v>
+        <v>678.1543555936476</v>
       </c>
       <c r="M26" t="n">
-        <v>1025.838119611198</v>
+        <v>1025.838119611197</v>
       </c>
       <c r="N26" t="n">
-        <v>1382.146745868977</v>
+        <v>1382.146745868976</v>
       </c>
       <c r="O26" t="n">
-        <v>1709.930958110257</v>
+        <v>1709.930958110256</v>
       </c>
       <c r="P26" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144097</v>
       </c>
       <c r="Q26" t="n">
-        <v>2129.19382092726</v>
+        <v>2129.193820927258</v>
       </c>
       <c r="R26" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="S26" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="T26" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="U26" t="n">
-        <v>1970.47436971003</v>
+        <v>1912.350394789749</v>
       </c>
       <c r="V26" t="n">
-        <v>1628.367560413548</v>
+        <v>1570.243585493267</v>
       </c>
       <c r="W26" t="n">
-        <v>1628.367560413548</v>
+        <v>1570.243585493267</v>
       </c>
       <c r="X26" t="n">
-        <v>1628.367560413548</v>
+        <v>1180.790980426324</v>
       </c>
       <c r="Y26" t="n">
-        <v>1231.876851334149</v>
+        <v>784.3002713469252</v>
       </c>
     </row>
     <row r="27">
@@ -6299,37 +6299,37 @@
         <v>116.7644974543436</v>
       </c>
       <c r="H27" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="I27" t="n">
-        <v>46.97993996379397</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="J27" t="n">
-        <v>108.1258151852888</v>
+        <v>104.5033271774592</v>
       </c>
       <c r="K27" t="n">
-        <v>263.4344911817381</v>
+        <v>431.5803814555766</v>
       </c>
       <c r="L27" t="n">
-        <v>502.3758240908636</v>
+        <v>670.5217143647021</v>
       </c>
       <c r="M27" t="n">
-        <v>1038.924292045924</v>
+        <v>961.9369440470458</v>
       </c>
       <c r="N27" t="n">
-        <v>1575.472760000985</v>
+        <v>1270.430686921238</v>
       </c>
       <c r="O27" t="n">
-        <v>1862.642688806527</v>
+        <v>1538.19932562728</v>
       </c>
       <c r="P27" t="n">
-        <v>2064.984135210185</v>
+        <v>1740.540772030937</v>
       </c>
       <c r="Q27" t="n">
-        <v>2167.796555931284</v>
+        <v>2167.796555931282</v>
       </c>
       <c r="R27" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="S27" t="n">
         <v>2130.709962009823</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>448.5283464724936</v>
+        <v>846.0033470306857</v>
       </c>
       <c r="C28" t="n">
-        <v>448.5283464724936</v>
+        <v>675.798229096675</v>
       </c>
       <c r="D28" t="n">
-        <v>448.5283464724936</v>
+        <v>520.1651159991898</v>
       </c>
       <c r="E28" t="n">
-        <v>448.5283464724936</v>
+        <v>364.6063038583923</v>
       </c>
       <c r="F28" t="n">
-        <v>448.5283464724936</v>
+        <v>364.6063038583923</v>
       </c>
       <c r="G28" t="n">
-        <v>281.5668710379082</v>
+        <v>197.6448284238068</v>
       </c>
       <c r="H28" t="n">
-        <v>137.5805176331996</v>
+        <v>53.65847501909823</v>
       </c>
       <c r="I28" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="J28" t="n">
-        <v>100.0771813085006</v>
+        <v>103.150439481412</v>
       </c>
       <c r="K28" t="n">
-        <v>329.0978738226433</v>
+        <v>332.1711319955546</v>
       </c>
       <c r="L28" t="n">
-        <v>681.5724732476403</v>
+        <v>684.6457314205517</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.449512240258</v>
+        <v>1069.522770413169</v>
       </c>
       <c r="N28" t="n">
-        <v>1443.502688531789</v>
+        <v>1446.5759467047</v>
       </c>
       <c r="O28" t="n">
-        <v>1785.271814574476</v>
+        <v>1788.345072747387</v>
       </c>
       <c r="P28" t="n">
-        <v>2058.36847380031</v>
+        <v>2058.368473800308</v>
       </c>
       <c r="Q28" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="R28" t="n">
-        <v>2167.872597798225</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="S28" t="n">
-        <v>1987.582631428616</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="T28" t="n">
-        <v>1757.386414860536</v>
+        <v>1871.894419978019</v>
       </c>
       <c r="U28" t="n">
-        <v>1472.018127382399</v>
+        <v>1586.526132499882</v>
       </c>
       <c r="V28" t="n">
-        <v>1206.038782203223</v>
+        <v>1586.526132499882</v>
       </c>
       <c r="W28" t="n">
-        <v>922.7083801344011</v>
+        <v>1303.195730431059</v>
       </c>
       <c r="X28" t="n">
-        <v>688.6280579173841</v>
+        <v>1069.115408214042</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.5159967340275</v>
+        <v>846.0033470306857</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1370.887143007429</v>
+        <v>1255.974192759722</v>
       </c>
       <c r="C29" t="n">
-        <v>977.7116415103596</v>
+        <v>1255.974192759722</v>
       </c>
       <c r="D29" t="n">
-        <v>592.2705127270274</v>
+        <v>870.5330639763897</v>
       </c>
       <c r="E29" t="n">
-        <v>189.6869878435719</v>
+        <v>870.5330639763897</v>
       </c>
       <c r="F29" t="n">
-        <v>70.60238028915353</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="G29" t="n">
-        <v>70.60238028915353</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="H29" t="n">
-        <v>70.60238028915353</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I29" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J29" t="n">
-        <v>166.558123132311</v>
+        <v>166.5581231323113</v>
       </c>
       <c r="K29" t="n">
-        <v>384.18402960616</v>
+        <v>384.1840296061603</v>
       </c>
       <c r="L29" t="n">
-        <v>678.1543555936476</v>
+        <v>678.154355593648</v>
       </c>
       <c r="M29" t="n">
         <v>1025.838119611198</v>
@@ -6481,34 +6481,34 @@
         <v>1709.930958110257</v>
       </c>
       <c r="P29" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144098</v>
       </c>
       <c r="Q29" t="n">
         <v>2129.19382092726</v>
       </c>
       <c r="R29" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S29" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="T29" t="n">
-        <v>2167.872597798225</v>
+        <v>1956.986120394518</v>
       </c>
       <c r="U29" t="n">
-        <v>2167.872597798225</v>
+        <v>1701.463917386044</v>
       </c>
       <c r="V29" t="n">
-        <v>2167.872597798225</v>
+        <v>1359.357108089563</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.872597798225</v>
+        <v>1255.974192759722</v>
       </c>
       <c r="X29" t="n">
-        <v>2167.872597798225</v>
+        <v>1255.974192759722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1771.381888718826</v>
+        <v>1255.974192759722</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>707.7739161251243</v>
+        <v>776.904027933757</v>
       </c>
       <c r="C30" t="n">
-        <v>557.1196856852165</v>
+        <v>626.2497974938492</v>
       </c>
       <c r="D30" t="n">
-        <v>427.0307183066968</v>
+        <v>496.1608301153295</v>
       </c>
       <c r="E30" t="n">
         <v>359.7143392262172</v>
@@ -6536,58 +6536,58 @@
         <v>116.7644974543436</v>
       </c>
       <c r="H30" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I30" t="n">
-        <v>46.97993996379397</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J30" t="n">
-        <v>302.8608101650161</v>
+        <v>205.968038602525</v>
       </c>
       <c r="K30" t="n">
-        <v>458.1694861614654</v>
+        <v>361.2767145989742</v>
       </c>
       <c r="L30" t="n">
-        <v>697.110819070591</v>
+        <v>600.2180475080997</v>
       </c>
       <c r="M30" t="n">
-        <v>988.5260487529347</v>
+        <v>891.6332771904434</v>
       </c>
       <c r="N30" t="n">
-        <v>1297.019791627127</v>
+        <v>1200.127020064635</v>
       </c>
       <c r="O30" t="n">
-        <v>1564.788430333169</v>
+        <v>1467.895658770677</v>
       </c>
       <c r="P30" t="n">
-        <v>1767.129876736826</v>
+        <v>1670.237105174335</v>
       </c>
       <c r="Q30" t="n">
-        <v>2167.796555931284</v>
+        <v>2097.49288907468</v>
       </c>
       <c r="R30" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S30" t="n">
-        <v>2061.579850201191</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T30" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U30" t="n">
-        <v>1680.848792636213</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V30" t="n">
-        <v>1458.30879100728</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W30" t="n">
-        <v>1228.191545140567</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X30" t="n">
-        <v>1038.884467490578</v>
+        <v>1108.014579299211</v>
       </c>
       <c r="Y30" t="n">
-        <v>859.5702505660856</v>
+        <v>928.7003623747183</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.722233358682</v>
+        <v>665.4972060335413</v>
       </c>
       <c r="C31" t="n">
-        <v>274.5171154246713</v>
+        <v>665.4972060335413</v>
       </c>
       <c r="D31" t="n">
-        <v>187.3438053606731</v>
+        <v>509.8640929360561</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3438053606731</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="F31" t="n">
-        <v>187.3438053606731</v>
+        <v>354.3052807952586</v>
       </c>
       <c r="G31" t="n">
         <v>187.3438053606731</v>
       </c>
       <c r="H31" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I31" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J31" t="n">
-        <v>103.150439481412</v>
+        <v>100.0771813085007</v>
       </c>
       <c r="K31" t="n">
-        <v>329.0978738226433</v>
+        <v>329.0978738226434</v>
       </c>
       <c r="L31" t="n">
-        <v>681.5724732476403</v>
+        <v>681.5724732476405</v>
       </c>
       <c r="M31" t="n">
         <v>1066.449512240258</v>
@@ -6642,31 +6642,31 @@
         <v>2058.36847380031</v>
       </c>
       <c r="Q31" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="R31" t="n">
-        <v>2102.090636546101</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S31" t="n">
-        <v>1921.800670176492</v>
+        <v>2149.659798236074</v>
       </c>
       <c r="T31" t="n">
-        <v>1921.800670176492</v>
+        <v>1919.463581667995</v>
       </c>
       <c r="U31" t="n">
-        <v>1636.432382698355</v>
+        <v>1634.095294189858</v>
       </c>
       <c r="V31" t="n">
-        <v>1370.453037519179</v>
+        <v>1368.115949010682</v>
       </c>
       <c r="W31" t="n">
-        <v>1087.122635450357</v>
+        <v>1084.785546941859</v>
       </c>
       <c r="X31" t="n">
-        <v>853.04231323334</v>
+        <v>850.7052247248425</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.9302520499833</v>
+        <v>850.7052247248425</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.3286936122918</v>
+        <v>472.5642878340907</v>
       </c>
       <c r="C32" t="n">
-        <v>43.3574519559645</v>
+        <v>428.7985807392968</v>
       </c>
       <c r="D32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="E32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="F32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="G32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="H32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I32" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J32" t="n">
-        <v>166.5581231323115</v>
+        <v>166.558123132311</v>
       </c>
       <c r="K32" t="n">
-        <v>384.1840296061605</v>
+        <v>384.1840296061608</v>
       </c>
       <c r="L32" t="n">
-        <v>678.1543555936481</v>
+        <v>678.1543555936482</v>
       </c>
       <c r="M32" t="n">
         <v>1025.838119611198</v>
@@ -6718,34 +6718,34 @@
         <v>1709.930958110257</v>
       </c>
       <c r="P32" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144098</v>
       </c>
       <c r="Q32" t="n">
         <v>2129.19382092726</v>
       </c>
       <c r="R32" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S32" t="n">
-        <v>2167.872597798225</v>
+        <v>2067.023091689095</v>
       </c>
       <c r="T32" t="n">
-        <v>2167.872597798225</v>
+        <v>1856.136614285388</v>
       </c>
       <c r="U32" t="n">
-        <v>2167.872597798225</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="V32" t="n">
-        <v>1825.765788501743</v>
+        <v>1258.507601980433</v>
       </c>
       <c r="W32" t="n">
-        <v>1454.766753470031</v>
+        <v>1258.507601980433</v>
       </c>
       <c r="X32" t="n">
-        <v>1065.314148403088</v>
+        <v>869.0549969134896</v>
       </c>
       <c r="Y32" t="n">
-        <v>668.8234393236887</v>
+        <v>472.5642878340907</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>707.7739161251243</v>
+        <v>776.904027933757</v>
       </c>
       <c r="C33" t="n">
-        <v>557.1196856852165</v>
+        <v>626.2497974938492</v>
       </c>
       <c r="D33" t="n">
-        <v>427.0307183066968</v>
+        <v>496.1608301153295</v>
       </c>
       <c r="E33" t="n">
-        <v>290.5842274175845</v>
+        <v>359.7143392262172</v>
       </c>
       <c r="F33" t="n">
-        <v>166.1524213007164</v>
+        <v>235.282533109349</v>
       </c>
       <c r="G33" t="n">
-        <v>47.63438564571092</v>
+        <v>116.7644974543436</v>
       </c>
       <c r="H33" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I33" t="n">
-        <v>43.3574519559645</v>
+        <v>46.97993996379395</v>
       </c>
       <c r="J33" t="n">
-        <v>104.5033271774593</v>
+        <v>108.1258151852887</v>
       </c>
       <c r="K33" t="n">
-        <v>259.8120031739086</v>
+        <v>431.5803814555779</v>
       </c>
       <c r="L33" t="n">
-        <v>498.7533360830341</v>
+        <v>670.5217143647035</v>
       </c>
       <c r="M33" t="n">
-        <v>790.1685657653779</v>
+        <v>961.9369440470472</v>
       </c>
       <c r="N33" t="n">
-        <v>1326.094220851466</v>
+        <v>1270.430686921239</v>
       </c>
       <c r="O33" t="n">
-        <v>1862.642688806527</v>
+        <v>1538.199325627281</v>
       </c>
       <c r="P33" t="n">
-        <v>2064.984135210185</v>
+        <v>1740.540772030939</v>
       </c>
       <c r="Q33" t="n">
-        <v>2167.796555931284</v>
+        <v>2167.796555931283</v>
       </c>
       <c r="R33" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S33" t="n">
-        <v>2061.579850201191</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T33" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U33" t="n">
-        <v>1680.848792636213</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V33" t="n">
-        <v>1458.30879100728</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W33" t="n">
-        <v>1228.191545140567</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X33" t="n">
-        <v>1038.884467490578</v>
+        <v>1108.014579299211</v>
       </c>
       <c r="Y33" t="n">
-        <v>859.5702505660856</v>
+        <v>928.7003623747183</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>690.794160980415</v>
+        <v>367.644862177577</v>
       </c>
       <c r="C34" t="n">
-        <v>520.5890430464042</v>
+        <v>367.644862177577</v>
       </c>
       <c r="D34" t="n">
-        <v>364.9559299489189</v>
+        <v>367.644862177577</v>
       </c>
       <c r="E34" t="n">
-        <v>364.9559299489189</v>
+        <v>367.644862177577</v>
       </c>
       <c r="F34" t="n">
-        <v>207.6299951618919</v>
+        <v>210.3189273905499</v>
       </c>
       <c r="G34" t="n">
-        <v>207.6299951618919</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5805176331996</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="I34" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J34" t="n">
         <v>103.150439481412</v>
       </c>
       <c r="K34" t="n">
-        <v>329.0978738226433</v>
+        <v>332.1711319955547</v>
       </c>
       <c r="L34" t="n">
-        <v>681.5724732476403</v>
+        <v>684.6457314205518</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.449512240258</v>
+        <v>1069.522770413169</v>
       </c>
       <c r="N34" t="n">
-        <v>1443.502688531789</v>
+        <v>1446.5759467047</v>
       </c>
       <c r="O34" t="n">
-        <v>1785.271814574476</v>
+        <v>1788.345072747387</v>
       </c>
       <c r="P34" t="n">
-        <v>2058.36847380031</v>
+        <v>2061.441731973222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="R34" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S34" t="n">
-        <v>2167.872597798225</v>
+        <v>1987.582631428616</v>
       </c>
       <c r="T34" t="n">
-        <v>2167.872597798225</v>
+        <v>1757.386414860536</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.504310320088</v>
+        <v>1472.018127382399</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.524965140912</v>
+        <v>1206.038782203223</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.19456307209</v>
+        <v>922.7083801344006</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.114240855073</v>
+        <v>688.6280579173837</v>
       </c>
       <c r="Y34" t="n">
-        <v>876.0021796717162</v>
+        <v>552.8528808688782</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.3574519559645</v>
+        <v>821.9740822363661</v>
       </c>
       <c r="C35" t="n">
-        <v>43.3574519559645</v>
+        <v>428.7985807392967</v>
       </c>
       <c r="D35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="E35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="F35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="G35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="H35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="I35" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="J35" t="n">
-        <v>166.5581231323113</v>
+        <v>166.5581231323109</v>
       </c>
       <c r="K35" t="n">
-        <v>384.1840296061603</v>
+        <v>384.1840296061599</v>
       </c>
       <c r="L35" t="n">
-        <v>678.1543555936478</v>
+        <v>678.1543555936471</v>
       </c>
       <c r="M35" t="n">
         <v>1025.838119611197</v>
       </c>
       <c r="N35" t="n">
-        <v>1382.146745868977</v>
+        <v>1382.146745868976</v>
       </c>
       <c r="O35" t="n">
-        <v>1709.930958110257</v>
+        <v>1709.930958110256</v>
       </c>
       <c r="P35" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144097</v>
       </c>
       <c r="Q35" t="n">
-        <v>2129.19382092726</v>
+        <v>2129.193820927258</v>
       </c>
       <c r="R35" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="S35" t="n">
-        <v>2067.023091689095</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="T35" t="n">
-        <v>1856.136614285389</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="U35" t="n">
-        <v>1600.614411276915</v>
+        <v>2008.412142094105</v>
       </c>
       <c r="V35" t="n">
-        <v>1258.507601980433</v>
+        <v>2008.412142094105</v>
       </c>
       <c r="W35" t="n">
-        <v>887.5085669487207</v>
+        <v>2008.412142094105</v>
       </c>
       <c r="X35" t="n">
-        <v>498.0559618817775</v>
+        <v>1618.959537027162</v>
       </c>
       <c r="Y35" t="n">
-        <v>101.5652528023787</v>
+        <v>1222.468827947763</v>
       </c>
     </row>
     <row r="36">
@@ -7010,43 +7010,43 @@
         <v>116.7644974543436</v>
       </c>
       <c r="H36" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="I36" t="n">
-        <v>46.97993996379397</v>
+        <v>46.97993996379392</v>
       </c>
       <c r="J36" t="n">
-        <v>276.2717054591289</v>
+        <v>276.2717054591274</v>
       </c>
       <c r="K36" t="n">
-        <v>431.5803814555782</v>
+        <v>431.5803814555766</v>
       </c>
       <c r="L36" t="n">
-        <v>670.5217143647037</v>
+        <v>670.5217143647021</v>
       </c>
       <c r="M36" t="n">
-        <v>961.9369440470475</v>
+        <v>961.9369440470458</v>
       </c>
       <c r="N36" t="n">
-        <v>1270.43068692124</v>
+        <v>1270.430686921238</v>
       </c>
       <c r="O36" t="n">
-        <v>1538.199325627281</v>
+        <v>1538.19932562728</v>
       </c>
       <c r="P36" t="n">
-        <v>1740.540772030939</v>
+        <v>1740.540772030937</v>
       </c>
       <c r="Q36" t="n">
-        <v>2167.796555931284</v>
+        <v>2167.796555931282</v>
       </c>
       <c r="R36" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="S36" t="n">
-        <v>2061.579850201191</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T36" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U36" t="n">
         <v>1749.978904444846</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.251324431814</v>
+        <v>546.2873232219002</v>
       </c>
       <c r="C37" t="n">
-        <v>917.0462064978033</v>
+        <v>376.0822052878895</v>
       </c>
       <c r="D37" t="n">
-        <v>761.4130934003181</v>
+        <v>220.4490921904042</v>
       </c>
       <c r="E37" t="n">
-        <v>605.8542812595206</v>
+        <v>210.3189273905499</v>
       </c>
       <c r="F37" t="n">
-        <v>448.5283464724936</v>
+        <v>210.3189273905499</v>
       </c>
       <c r="G37" t="n">
-        <v>281.5668710379082</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5805176331996</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="I37" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596446</v>
       </c>
       <c r="J37" t="n">
         <v>103.150439481412</v>
       </c>
       <c r="K37" t="n">
-        <v>332.1711319955547</v>
+        <v>332.1711319955546</v>
       </c>
       <c r="L37" t="n">
-        <v>684.6457314205518</v>
+        <v>684.6457314205517</v>
       </c>
       <c r="M37" t="n">
         <v>1069.522770413169</v>
@@ -7110,37 +7110,37 @@
         <v>1446.5759467047</v>
       </c>
       <c r="O37" t="n">
-        <v>1785.271814574476</v>
+        <v>1788.345072747387</v>
       </c>
       <c r="P37" t="n">
-        <v>2058.36847380031</v>
+        <v>2061.441731973222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="R37" t="n">
-        <v>2102.090636546101</v>
+        <v>2167.872597798223</v>
       </c>
       <c r="S37" t="n">
-        <v>2102.090636546101</v>
+        <v>1987.582631428615</v>
       </c>
       <c r="T37" t="n">
-        <v>1871.894419978021</v>
+        <v>1757.386414860535</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.894419978021</v>
+        <v>1472.018127382398</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.894419978021</v>
+        <v>1472.018127382398</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.651726523489</v>
+        <v>1188.687725313575</v>
       </c>
       <c r="X37" t="n">
-        <v>1495.571404306472</v>
+        <v>954.6074030965582</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.459343123115</v>
+        <v>731.4953419132015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1098.395044352427</v>
+        <v>803.6289564861181</v>
       </c>
       <c r="C38" t="n">
-        <v>1098.395044352427</v>
+        <v>803.6289564861181</v>
       </c>
       <c r="D38" t="n">
-        <v>862.8354153094422</v>
+        <v>803.6289564861181</v>
       </c>
       <c r="E38" t="n">
-        <v>460.2518904259867</v>
+        <v>401.0454316026626</v>
       </c>
       <c r="F38" t="n">
-        <v>43.3574519559645</v>
+        <v>401.0454316026626</v>
       </c>
       <c r="G38" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596448</v>
       </c>
       <c r="H38" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596448</v>
       </c>
       <c r="I38" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596448</v>
       </c>
       <c r="J38" t="n">
-        <v>166.5581231323123</v>
+        <v>166.558123132311</v>
       </c>
       <c r="K38" t="n">
-        <v>384.1840296061612</v>
+        <v>384.1840296061605</v>
       </c>
       <c r="L38" t="n">
-        <v>678.1543555936487</v>
+        <v>678.1543555936482</v>
       </c>
       <c r="M38" t="n">
         <v>1025.838119611198</v>
@@ -7189,37 +7189,37 @@
         <v>1382.146745868977</v>
       </c>
       <c r="O38" t="n">
-        <v>1709.930958110258</v>
+        <v>1709.930958110257</v>
       </c>
       <c r="P38" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144098</v>
       </c>
       <c r="Q38" t="n">
-        <v>2129.19382092726</v>
+        <v>2129.193820927259</v>
       </c>
       <c r="R38" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S38" t="n">
-        <v>2067.023091689095</v>
+        <v>2067.023091689094</v>
       </c>
       <c r="T38" t="n">
-        <v>2067.023091689095</v>
+        <v>1856.136614285388</v>
       </c>
       <c r="U38" t="n">
-        <v>1811.500888680621</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="V38" t="n">
-        <v>1469.394079384139</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="W38" t="n">
-        <v>1098.395044352427</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="X38" t="n">
-        <v>1098.395044352427</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="Y38" t="n">
-        <v>1098.395044352427</v>
+        <v>1204.123702197515</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>707.7739161251243</v>
+        <v>707.7739161251234</v>
       </c>
       <c r="C39" t="n">
-        <v>557.1196856852165</v>
+        <v>557.1196856852156</v>
       </c>
       <c r="D39" t="n">
-        <v>427.0307183066968</v>
+        <v>427.0307183066959</v>
       </c>
       <c r="E39" t="n">
-        <v>290.5842274175845</v>
+        <v>290.5842274175836</v>
       </c>
       <c r="F39" t="n">
-        <v>166.1524213007164</v>
+        <v>166.1524213007154</v>
       </c>
       <c r="G39" t="n">
-        <v>47.63438564571092</v>
+        <v>47.63438564571001</v>
       </c>
       <c r="H39" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596448</v>
       </c>
       <c r="I39" t="n">
-        <v>46.97993996379395</v>
+        <v>46.97993996379393</v>
       </c>
       <c r="J39" t="n">
-        <v>302.8608101650161</v>
+        <v>108.1258151852887</v>
       </c>
       <c r="K39" t="n">
-        <v>458.1694861614653</v>
+        <v>263.4344911817379</v>
       </c>
       <c r="L39" t="n">
-        <v>697.1108190705909</v>
+        <v>502.3758240908635</v>
       </c>
       <c r="M39" t="n">
-        <v>988.5260487529345</v>
+        <v>793.7910537732071</v>
       </c>
       <c r="N39" t="n">
-        <v>1525.074516707995</v>
+        <v>1102.284796647399</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.642688806527</v>
+        <v>1370.053435353441</v>
       </c>
       <c r="P39" t="n">
-        <v>2064.984135210185</v>
+        <v>1670.237105174335</v>
       </c>
       <c r="Q39" t="n">
-        <v>2167.796555931284</v>
+        <v>2097.492889074679</v>
       </c>
       <c r="R39" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="S39" t="n">
-        <v>2061.579850201191</v>
+        <v>2061.57985020119</v>
       </c>
       <c r="T39" t="n">
-        <v>1890.810502913286</v>
+        <v>1890.810502913285</v>
       </c>
       <c r="U39" t="n">
-        <v>1680.848792636213</v>
+        <v>1680.848792636212</v>
       </c>
       <c r="V39" t="n">
-        <v>1458.30879100728</v>
+        <v>1458.308791007279</v>
       </c>
       <c r="W39" t="n">
-        <v>1228.191545140567</v>
+        <v>1228.191545140566</v>
       </c>
       <c r="X39" t="n">
-        <v>1038.884467490578</v>
+        <v>1038.884467490577</v>
       </c>
       <c r="Y39" t="n">
-        <v>859.5702505660856</v>
+        <v>859.5702505660847</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>682.0804299152851</v>
+        <v>759.7202717107764</v>
       </c>
       <c r="C40" t="n">
-        <v>511.8753119812743</v>
+        <v>759.7202717107764</v>
       </c>
       <c r="D40" t="n">
-        <v>356.2421988837891</v>
+        <v>604.0871586132911</v>
       </c>
       <c r="E40" t="n">
-        <v>200.6833867429916</v>
+        <v>448.5283464724936</v>
       </c>
       <c r="F40" t="n">
-        <v>43.3574519559645</v>
+        <v>448.5283464724936</v>
       </c>
       <c r="G40" t="n">
-        <v>43.3574519559645</v>
+        <v>281.5668710379082</v>
       </c>
       <c r="H40" t="n">
-        <v>43.3574519559645</v>
+        <v>137.5805176331996</v>
       </c>
       <c r="I40" t="n">
-        <v>43.3574519559645</v>
+        <v>43.35745195596448</v>
       </c>
       <c r="J40" t="n">
         <v>103.150439481412</v>
       </c>
       <c r="K40" t="n">
-        <v>332.1711319955547</v>
+        <v>329.0978738226425</v>
       </c>
       <c r="L40" t="n">
-        <v>684.6457314205518</v>
+        <v>681.5724732476396</v>
       </c>
       <c r="M40" t="n">
-        <v>1069.522770413169</v>
+        <v>1066.449512240257</v>
       </c>
       <c r="N40" t="n">
-        <v>1443.502688531789</v>
+        <v>1443.502688531788</v>
       </c>
       <c r="O40" t="n">
-        <v>1785.271814574476</v>
+        <v>1785.271814574475</v>
       </c>
       <c r="P40" t="n">
-        <v>2058.36847380031</v>
+        <v>2058.368473800309</v>
       </c>
       <c r="Q40" t="n">
-        <v>2167.872597798225</v>
+        <v>2167.872597798224</v>
       </c>
       <c r="R40" t="n">
-        <v>2167.872597798225</v>
+        <v>2102.0906365461</v>
       </c>
       <c r="S40" t="n">
-        <v>2106.024681232353</v>
+        <v>1921.800670176491</v>
       </c>
       <c r="T40" t="n">
-        <v>1875.828464664273</v>
+        <v>1691.604453608411</v>
       </c>
       <c r="U40" t="n">
-        <v>1590.460177186136</v>
+        <v>1406.236166130274</v>
       </c>
       <c r="V40" t="n">
-        <v>1324.48083200696</v>
+        <v>1140.256820951098</v>
       </c>
       <c r="W40" t="n">
-        <v>1324.48083200696</v>
+        <v>856.9264188822758</v>
       </c>
       <c r="X40" t="n">
-        <v>1090.400509789943</v>
+        <v>759.7202717107764</v>
       </c>
       <c r="Y40" t="n">
-        <v>867.2884486065864</v>
+        <v>759.7202717107764</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>839.1164783364894</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="C41" t="n">
-        <v>445.94097683942</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="D41" t="n">
-        <v>445.94097683942</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="E41" t="n">
-        <v>43.35745195596449</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="F41" t="n">
-        <v>43.35745195596449</v>
+        <v>453.6386255063675</v>
       </c>
       <c r="G41" t="n">
         <v>43.35745195596449</v>
@@ -7411,25 +7411,25 @@
         <v>43.35745195596449</v>
       </c>
       <c r="J41" t="n">
-        <v>166.5581231323117</v>
+        <v>166.5581231323113</v>
       </c>
       <c r="K41" t="n">
-        <v>384.1840296061609</v>
+        <v>384.1840296061603</v>
       </c>
       <c r="L41" t="n">
-        <v>678.1543555936489</v>
+        <v>678.154355593648</v>
       </c>
       <c r="M41" t="n">
-        <v>1025.838119611199</v>
+        <v>1025.838119611198</v>
       </c>
       <c r="N41" t="n">
-        <v>1382.146745868978</v>
+        <v>1382.146745868977</v>
       </c>
       <c r="O41" t="n">
-        <v>1709.930958110258</v>
+        <v>1709.930958110257</v>
       </c>
       <c r="P41" t="n">
-        <v>1967.261549144099</v>
+        <v>1967.261549144098</v>
       </c>
       <c r="Q41" t="n">
         <v>2129.19382092726</v>
@@ -7438,25 +7438,25 @@
         <v>2167.872597798224</v>
       </c>
       <c r="S41" t="n">
-        <v>2167.872597798224</v>
+        <v>2067.023091689095</v>
       </c>
       <c r="T41" t="n">
-        <v>1978.208742423767</v>
+        <v>1856.136614285388</v>
       </c>
       <c r="U41" t="n">
-        <v>1978.208742423767</v>
+        <v>1600.614411276914</v>
       </c>
       <c r="V41" t="n">
-        <v>1636.101933127285</v>
+        <v>1258.507601980433</v>
       </c>
       <c r="W41" t="n">
-        <v>1636.101933127285</v>
+        <v>1258.507601980433</v>
       </c>
       <c r="X41" t="n">
-        <v>1636.101933127285</v>
+        <v>869.0549969134896</v>
       </c>
       <c r="Y41" t="n">
-        <v>1239.611224047886</v>
+        <v>472.5642878340907</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>776.904027933757</v>
+        <v>707.7739161251238</v>
       </c>
       <c r="C42" t="n">
-        <v>626.2497974938492</v>
+        <v>557.119685685216</v>
       </c>
       <c r="D42" t="n">
-        <v>496.1608301153295</v>
+        <v>427.0307183066964</v>
       </c>
       <c r="E42" t="n">
-        <v>359.7143392262172</v>
+        <v>290.5842274175841</v>
       </c>
       <c r="F42" t="n">
         <v>235.282533109349</v>
@@ -7487,28 +7487,28 @@
         <v>43.35745195596449</v>
       </c>
       <c r="I42" t="n">
-        <v>46.97993996379395</v>
+        <v>43.35745195596449</v>
       </c>
       <c r="J42" t="n">
-        <v>302.8608101650161</v>
+        <v>299.2383221571866</v>
       </c>
       <c r="K42" t="n">
-        <v>458.1694861614653</v>
+        <v>756.023744634824</v>
       </c>
       <c r="L42" t="n">
-        <v>697.1108190705909</v>
+        <v>994.9650775439495</v>
       </c>
       <c r="M42" t="n">
-        <v>988.5260487529345</v>
+        <v>1286.380307226293</v>
       </c>
       <c r="N42" t="n">
-        <v>1525.074516707995</v>
+        <v>1594.874050100485</v>
       </c>
       <c r="O42" t="n">
-        <v>1792.843155414037</v>
+        <v>1862.642688806527</v>
       </c>
       <c r="P42" t="n">
-        <v>1995.184601817694</v>
+        <v>2064.984135210184</v>
       </c>
       <c r="Q42" t="n">
         <v>2167.796555931283</v>
@@ -7517,25 +7517,25 @@
         <v>2167.872597798224</v>
       </c>
       <c r="S42" t="n">
-        <v>2130.709962009823</v>
+        <v>2061.57985020119</v>
       </c>
       <c r="T42" t="n">
-        <v>1959.940614721919</v>
+        <v>1890.810502913286</v>
       </c>
       <c r="U42" t="n">
-        <v>1749.978904444846</v>
+        <v>1680.848792636212</v>
       </c>
       <c r="V42" t="n">
-        <v>1527.438902815913</v>
+        <v>1458.308791007279</v>
       </c>
       <c r="W42" t="n">
-        <v>1297.321656949199</v>
+        <v>1228.191545140566</v>
       </c>
       <c r="X42" t="n">
-        <v>1108.014579299211</v>
+        <v>1038.884467490578</v>
       </c>
       <c r="Y42" t="n">
-        <v>928.7003623747183</v>
+        <v>859.5702505660852</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.251324431814</v>
+        <v>1082.204583128664</v>
       </c>
       <c r="C43" t="n">
-        <v>917.0462064978033</v>
+        <v>911.9994651946529</v>
       </c>
       <c r="D43" t="n">
         <v>761.4130934003181</v>
@@ -7569,10 +7569,10 @@
         <v>43.35745195596449</v>
       </c>
       <c r="J43" t="n">
-        <v>100.0771813085007</v>
+        <v>103.150439481412</v>
       </c>
       <c r="K43" t="n">
-        <v>329.0978738226434</v>
+        <v>332.1711319955547</v>
       </c>
       <c r="L43" t="n">
         <v>681.5724732476405</v>
@@ -7608,13 +7608,13 @@
         <v>1550.743003888787</v>
       </c>
       <c r="W43" t="n">
-        <v>1550.743003888787</v>
+        <v>1267.412601819965</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.662681671771</v>
+        <v>1267.412601819965</v>
       </c>
       <c r="Y43" t="n">
-        <v>1272.459343123115</v>
+        <v>1267.412601819965</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1006.926211988172</v>
+        <v>337.929501125301</v>
       </c>
       <c r="C44" t="n">
-        <v>613.7507104911022</v>
+        <v>337.929501125301</v>
       </c>
       <c r="D44" t="n">
-        <v>228.3095817077699</v>
+        <v>337.929501125301</v>
       </c>
       <c r="E44" t="n">
-        <v>228.3095817077699</v>
+        <v>337.929501125301</v>
       </c>
       <c r="F44" t="n">
-        <v>70.60238028915354</v>
+        <v>337.929501125301</v>
       </c>
       <c r="G44" t="n">
-        <v>70.60238028915354</v>
+        <v>337.929501125301</v>
       </c>
       <c r="H44" t="n">
-        <v>70.60238028915354</v>
+        <v>43.35745195596447</v>
       </c>
       <c r="I44" t="n">
-        <v>43.35745195596449</v>
+        <v>43.35745195596447</v>
       </c>
       <c r="J44" t="n">
         <v>166.558123132311</v>
@@ -7666,34 +7666,34 @@
         <v>1709.930958110256</v>
       </c>
       <c r="P44" t="n">
-        <v>1967.261549144098</v>
+        <v>1967.261549144097</v>
       </c>
       <c r="Q44" t="n">
-        <v>2129.19382092726</v>
+        <v>2129.193820927259</v>
       </c>
       <c r="R44" t="n">
         <v>2167.872597798224</v>
       </c>
       <c r="S44" t="n">
-        <v>2167.872597798224</v>
+        <v>2067.023091689094</v>
       </c>
       <c r="T44" t="n">
-        <v>2167.872597798224</v>
+        <v>1856.136614285387</v>
       </c>
       <c r="U44" t="n">
-        <v>2167.872597798224</v>
+        <v>1856.136614285387</v>
       </c>
       <c r="V44" t="n">
-        <v>2167.872597798224</v>
+        <v>1514.029804988906</v>
       </c>
       <c r="W44" t="n">
-        <v>1796.873562766512</v>
+        <v>1143.030769957193</v>
       </c>
       <c r="X44" t="n">
-        <v>1407.420957699569</v>
+        <v>753.5781648902499</v>
       </c>
       <c r="Y44" t="n">
-        <v>1407.420957699569</v>
+        <v>357.0874558108511</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>707.7739161251238</v>
+        <v>776.904027933757</v>
       </c>
       <c r="C45" t="n">
-        <v>557.119685685216</v>
+        <v>626.2497974938492</v>
       </c>
       <c r="D45" t="n">
-        <v>427.0307183066964</v>
+        <v>496.1608301153295</v>
       </c>
       <c r="E45" t="n">
-        <v>290.5842274175841</v>
+        <v>359.7143392262172</v>
       </c>
       <c r="F45" t="n">
         <v>235.282533109349</v>
@@ -7721,58 +7721,58 @@
         <v>116.7644974543436</v>
       </c>
       <c r="H45" t="n">
-        <v>43.35745195596449</v>
+        <v>43.35745195596447</v>
       </c>
       <c r="I45" t="n">
-        <v>46.97993996379395</v>
+        <v>43.35745195596447</v>
       </c>
       <c r="J45" t="n">
-        <v>108.1258151852887</v>
+        <v>299.2383221571866</v>
       </c>
       <c r="K45" t="n">
-        <v>263.4344911817379</v>
+        <v>454.5469981536359</v>
       </c>
       <c r="L45" t="n">
-        <v>660.7580559925466</v>
+        <v>693.4883310627614</v>
       </c>
       <c r="M45" t="n">
-        <v>952.1732856748903</v>
+        <v>984.9035607451051</v>
       </c>
       <c r="N45" t="n">
-        <v>1260.667028549082</v>
+        <v>1293.397303619297</v>
       </c>
       <c r="O45" t="n">
-        <v>1528.435667255124</v>
+        <v>1561.165942325339</v>
       </c>
       <c r="P45" t="n">
-        <v>2064.984135210184</v>
+        <v>1763.507388728996</v>
       </c>
       <c r="Q45" t="n">
-        <v>2167.796555931283</v>
+        <v>2167.796555931282</v>
       </c>
       <c r="R45" t="n">
         <v>2167.872597798224</v>
       </c>
       <c r="S45" t="n">
-        <v>2061.57985020119</v>
+        <v>2130.709962009823</v>
       </c>
       <c r="T45" t="n">
-        <v>1890.810502913286</v>
+        <v>1959.940614721919</v>
       </c>
       <c r="U45" t="n">
-        <v>1680.848792636212</v>
+        <v>1749.978904444846</v>
       </c>
       <c r="V45" t="n">
-        <v>1458.308791007279</v>
+        <v>1527.438902815913</v>
       </c>
       <c r="W45" t="n">
-        <v>1228.191545140566</v>
+        <v>1297.321656949199</v>
       </c>
       <c r="X45" t="n">
-        <v>1038.884467490578</v>
+        <v>1108.014579299211</v>
       </c>
       <c r="Y45" t="n">
-        <v>859.5702505660852</v>
+        <v>928.7003623747183</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>604.1614595699789</v>
+        <v>943.2649710271055</v>
       </c>
       <c r="C46" t="n">
-        <v>604.1614595699789</v>
+        <v>773.0598530930947</v>
       </c>
       <c r="D46" t="n">
-        <v>448.5283464724936</v>
+        <v>617.4267399956095</v>
       </c>
       <c r="E46" t="n">
-        <v>448.5283464724936</v>
+        <v>461.8679278548121</v>
       </c>
       <c r="F46" t="n">
-        <v>448.5283464724936</v>
+        <v>304.541993067785</v>
       </c>
       <c r="G46" t="n">
-        <v>281.5668710379082</v>
+        <v>137.5805176331996</v>
       </c>
       <c r="H46" t="n">
         <v>137.5805176331996</v>
       </c>
       <c r="I46" t="n">
-        <v>43.35745195596449</v>
+        <v>43.35745195596447</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0771813085007</v>
+        <v>103.150439481412</v>
       </c>
       <c r="K46" t="n">
-        <v>329.0978738226434</v>
+        <v>332.1711319955546</v>
       </c>
       <c r="L46" t="n">
-        <v>681.5724732476405</v>
+        <v>684.6457314205517</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.449512240258</v>
+        <v>1069.522770413169</v>
       </c>
       <c r="N46" t="n">
-        <v>1443.502688531789</v>
+        <v>1443.502688531788</v>
       </c>
       <c r="O46" t="n">
-        <v>1785.271814574476</v>
+        <v>1785.271814574475</v>
       </c>
       <c r="P46" t="n">
-        <v>2058.36847380031</v>
+        <v>2058.368473800309</v>
       </c>
       <c r="Q46" t="n">
         <v>2167.872597798224</v>
       </c>
       <c r="R46" t="n">
-        <v>2102.0906365461</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="S46" t="n">
-        <v>1921.800670176492</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.604453608412</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="U46" t="n">
-        <v>1406.236166130275</v>
+        <v>2102.090636546099</v>
       </c>
       <c r="V46" t="n">
-        <v>1140.256820951099</v>
+        <v>1836.111291366924</v>
       </c>
       <c r="W46" t="n">
-        <v>856.9264188822763</v>
+        <v>1552.780889298101</v>
       </c>
       <c r="X46" t="n">
-        <v>827.2735207533356</v>
+        <v>1318.700567081084</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.1614595699789</v>
+        <v>1095.588505897728</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083153</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850112</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>9.167801431118576</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L13" t="n">
-        <v>113.9881414229083</v>
+        <v>113.9881414229084</v>
       </c>
       <c r="M13" t="n">
-        <v>111.4192326297103</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N13" t="n">
-        <v>106.5092612162224</v>
+        <v>85.33607785090035</v>
       </c>
       <c r="O13" t="n">
-        <v>100.7184482927857</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361105</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.64592635853825</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083153</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850112</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>37.09549975836523</v>
       </c>
       <c r="K16" t="n">
-        <v>131.0594330892263</v>
+        <v>9.167801431118562</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>113.9881414229083</v>
       </c>
       <c r="M16" t="n">
-        <v>25.05347031843475</v>
+        <v>106.4943182192817</v>
       </c>
       <c r="N16" t="n">
         <v>106.5092612162224</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P16" t="n">
-        <v>133.6615775517188</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836525</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>9.16780143111859</v>
+        <v>131.0594330892263</v>
       </c>
       <c r="L19" t="n">
-        <v>113.9881414229083</v>
+        <v>20.14349890494691</v>
       </c>
       <c r="M19" t="n">
         <v>111.4192326297103</v>
       </c>
       <c r="N19" t="n">
-        <v>106.5092612162224</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>116.0954849978688</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361107</v>
+        <v>133.6615775517188</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853825</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K22" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L22" t="n">
-        <v>109.0632270124796</v>
+        <v>109.0632270124797</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297102</v>
+        <v>111.4192326297103</v>
       </c>
       <c r="N22" t="n">
-        <v>106.5092612162223</v>
+        <v>106.5092612162224</v>
       </c>
       <c r="O22" t="n">
-        <v>121.0203994082973</v>
+        <v>121.0203994082974</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q22" t="n">
         <v>44.64592635853825</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>169.8443336099396</v>
+        <v>229.8490824411664</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>251.2406983460175</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>98.83071388453325</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.79616555179249</v>
+        <v>12.13708675600516</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>173.5034124057254</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>247.6093315886029</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>230.3583081624935</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>19.59726272676807</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.3682352786894</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
         <v>166.520275497658</v>
@@ -10050,7 +10050,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>207.5059375851434</v>
       </c>
       <c r="Q28" t="n">
         <v>101.9350150692923</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.79616555179249</v>
+        <v>12.13708675600516</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>102.4896075000664</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>300.8628873468265</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>49.36823527868957</v>
       </c>
       <c r="K31" t="n">
-        <v>163.415974312899</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
         <v>253.4605344048249</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.13708675600515</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>169.8443336099394</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>229.7292042544408</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>271.494777019211</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>163.415974312899</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
@@ -10527,7 +10527,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>98.83071388453325</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>169.8443336099395</v>
+        <v>169.844333609938</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>251.2406983460175</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>98.83071388453187</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>230.3583081624936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>70.50457918433347</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>98.83052870427881</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>163.4159743128982</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
@@ -10992,7 +10992,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>264.9313370926016</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.79616555179249</v>
+        <v>12.13708675600516</v>
       </c>
       <c r="J42" t="n">
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>304.5219661426142</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>230.3583081624935</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.50457918433325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.36823527868957</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>250.356233220066</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.79616555179249</v>
+        <v>12.13708675600516</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>159.9820524259426</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>337.582850051922</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>304.5219661426131</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.36823527868957</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
@@ -11466,7 +11466,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>264.9313370926006</v>
       </c>
       <c r="O46" t="n">
         <v>254.3449995307766</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.8284227355013</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>267.352114823991</v>
+        <v>267.3521148239909</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>305.3633449208606</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5979401715768</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H11" t="n">
-        <v>184.2729538648624</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272715</v>
       </c>
       <c r="T11" t="n">
         <v>214.9918168860265</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>270.6341703304972</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>28.38673943844388</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740086</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -23357,7 +23357,7 @@
         <v>80.00854575966319</v>
       </c>
       <c r="I12" t="n">
-        <v>22.49179773586701</v>
+        <v>22.491797735867</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>50.23150693813965</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U12" t="n">
-        <v>86.02043134396233</v>
+        <v>100.5499138376087</v>
       </c>
       <c r="V12" t="n">
-        <v>98.4229699545359</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>120.4539242435848</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538062</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S13" t="n">
-        <v>67.69266886420898</v>
+        <v>82.22215135785535</v>
       </c>
       <c r="T13" t="n">
-        <v>230.6150159536303</v>
+        <v>108.7233842955225</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6577060714339</v>
+        <v>282.5493377295417</v>
       </c>
       <c r="V13" t="n">
-        <v>141.4279200692763</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>124.3773698303855</v>
+        <v>109.8478873367389</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>98.98930891341523</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>274.2245683310377</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>276.6660579765132</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>290.8338624272143</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G14" t="n">
-        <v>285.7063085134691</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H14" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.189652850835</v>
+        <v>24.82750368637369</v>
       </c>
       <c r="T14" t="n">
         <v>214.9918168860265</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304971</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591734</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I15" t="n">
-        <v>22.49179773586701</v>
+        <v>22.491797735867</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
-        <v>172.1231385962474</v>
+        <v>60.96175445419954</v>
       </c>
       <c r="U15" t="n">
-        <v>100.5499138376088</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V15" t="n">
-        <v>98.4229699545359</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>105.9244417499383</v>
+        <v>105.9244417499382</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>55.62944309714011</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23655,10 +23655,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>46.61143509656294</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>32.18515030840261</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23670,7 +23670,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H16" t="n">
-        <v>148.207989438968</v>
+        <v>26.31635778086017</v>
       </c>
       <c r="I16" t="n">
         <v>112.4303652576383</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S16" t="n">
-        <v>67.69266886420898</v>
+        <v>189.5843005223167</v>
       </c>
       <c r="T16" t="n">
-        <v>108.7233842955226</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U16" t="n">
-        <v>175.1871885650804</v>
+        <v>160.6577060714339</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>173.1349488836728</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,22 +23737,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>259.6950858373912</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>276.6660579765132</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>290.8338624272143</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2357910071156</v>
+        <v>285.7063085134691</v>
       </c>
       <c r="H17" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.189652850835</v>
+        <v>24.82750368637377</v>
       </c>
       <c r="T17" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791881</v>
       </c>
       <c r="U17" t="n">
         <v>253.0805472469234</v>
@@ -23794,7 +23794,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232877</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23819,7 +23819,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>27.71987681575995</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -23864,19 +23864,19 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>64.76098943178613</v>
+        <v>50.23150693813966</v>
       </c>
       <c r="U18" t="n">
         <v>86.02043134396234</v>
       </c>
       <c r="V18" t="n">
-        <v>98.4229699545359</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>105.9244417499383</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538075</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553741</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S19" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>108.7233842955226</v>
+        <v>123.252866789169</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714339</v>
       </c>
       <c r="V19" t="n">
         <v>141.4279200692763</v>
@@ -23955,7 +23955,7 @@
         <v>158.6054663900264</v>
       </c>
       <c r="X19" t="n">
-        <v>124.3773698303855</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,16 +23974,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>259.6950858373913</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765132</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5979401715768</v>
+        <v>300.2357910071156</v>
       </c>
       <c r="H20" t="n">
         <v>306.1645855229701</v>
@@ -24022,19 +24022,19 @@
         <v>132.189652850835</v>
       </c>
       <c r="T20" t="n">
-        <v>214.9918168860265</v>
+        <v>93.1001852279188</v>
       </c>
       <c r="U20" t="n">
-        <v>145.7183980824622</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454091</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232878</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581661</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.38673943844411</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>27.25605647740109</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24068,7 +24068,7 @@
         <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.49179773586701</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
-        <v>50.23150693813976</v>
+        <v>50.23150693813965</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9120630020701</v>
+        <v>100.5499138376088</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499383</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538073</v>
       </c>
       <c r="Y21" t="n">
-        <v>92.65072332665375</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.99378933992715</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24177,25 +24177,25 @@
         <v>93.75581532553741</v>
       </c>
       <c r="S22" t="n">
-        <v>189.5843005223167</v>
+        <v>67.69266886420898</v>
       </c>
       <c r="T22" t="n">
-        <v>230.6150159536303</v>
+        <v>108.7233842955226</v>
       </c>
       <c r="U22" t="n">
         <v>282.5493377295417</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692763</v>
       </c>
       <c r="W22" t="n">
-        <v>158.6054663900265</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>109.8478873367391</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.98930891341546</v>
+        <v>113.5187914070619</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>33.55305891907369</v>
       </c>
       <c r="G23" t="n">
         <v>406.1783618148989</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>291.6263286776432</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>99.84101104803872</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T23" t="n">
-        <v>194.3313765565763</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.9669809783891</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>68.43881069054635</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>68.43881069054679</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>130.1680129368318</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>27.20288094923937</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.12414163960318</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>44.54312455273072</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24463,7 +24463,7 @@
         <v>291.6263286776432</v>
       </c>
       <c r="I26" t="n">
-        <v>26.97247904985714</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.84101104803872</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T26" t="n">
         <v>208.7776126296693</v>
       </c>
       <c r="U26" t="n">
-        <v>57.542735171076</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>68.43881069054635</v>
+        <v>68.43881069054814</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.5381647454697</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.08282218796033</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.12414163960318</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>294.8317326064478</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.1783618148989</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>291.6263286776432</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>99.84101104803872</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>264.9399585048532</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.43881069054638</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>68.43881069054679</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>67.77520500315224</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>93.28083502046275</v>
+        <v>93.28083502046276</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.12414163960318</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>160.4563951393839</v>
       </c>
       <c r="T31" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>166.5222172423346</v>
+        <v>345.9156964582526</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24937,7 +24937,7 @@
         <v>291.6263286776432</v>
       </c>
       <c r="I32" t="n">
-        <v>26.97247904985714</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>99.84101104803872</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>68.43881069054635</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>68.43881069054679</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>73.19750711725615</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.28083502046276</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>65.12414163960318</v>
       </c>
       <c r="S34" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8942544023992</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>86.46351529350264</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>338.8640754163329</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25174,7 +25174,7 @@
         <v>291.6263286776432</v>
       </c>
       <c r="I35" t="n">
-        <v>26.97247904985714</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>99.84101104803874</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7776126296693</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>95.10112983131233</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>68.43881069054814</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>68.43881069054652</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.9743608675338</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.28083502046276</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.12414163960318</v>
       </c>
       <c r="S37" t="n">
-        <v>178.4870667059124</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5146046033557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>139.6768315281477</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>148.3826847429442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.1783618148989</v>
+        <v>52.06726196466775</v>
       </c>
       <c r="H38" t="n">
         <v>291.6263286776432</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>68.43881069054635</v>
+        <v>68.43881069054723</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2918606802396</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.5464898706615</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>93.28083502046276</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.12414163960318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>117.2576293056992</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.5054332950623</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>377.7533925498369</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.1783618148989</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>291.6263286776432</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>99.84101104803874</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>21.01039580895602</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.9669809783891</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>68.43881069054682</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>68.43881069054679</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.996273890118943</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.1196354083544</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>377.5234231155884</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>256.5953646808918</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>406.1783618148989</v>
       </c>
       <c r="H44" t="n">
-        <v>291.6263286776432</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>26.97247904985716</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.84101104803874</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7776126296693</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.9669809783891</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>68.43881069054682</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>68.43881069054768</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>32.5556389824724</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.5464898706615</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.4870667059124</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>227.8942544023992</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5146046033557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>202.3831498471954</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>301978.6799058285</v>
+        <v>301978.6799058286</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>301978.6799058286</v>
+        <v>301978.6799058287</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>301978.6799058285</v>
+        <v>301978.6799058284</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>301978.6799058285</v>
+        <v>301978.6799058284</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626786.832885779</v>
+        <v>626786.8328857789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626786.8328857791</v>
+        <v>626786.8328857786</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626786.8328857787</v>
+        <v>626786.8328857789</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>626786.832885779</v>
+        <v>626786.8328857791</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626786.832885779</v>
+        <v>626786.8328857785</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626786.832885779</v>
+        <v>626786.8328857786</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626786.8328857787</v>
+        <v>626786.832885779</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626786.832885779</v>
+        <v>626786.8328857787</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75145.65735773336</v>
+        <v>75145.65735773332</v>
       </c>
       <c r="C2" t="n">
         <v>75145.65735773335</v>
@@ -26322,10 +26322,10 @@
         <v>75145.65735773335</v>
       </c>
       <c r="E2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="F2" t="n">
-        <v>118356.1129368715</v>
+        <v>118356.1129368716</v>
       </c>
       <c r="G2" t="n">
         <v>118356.1129368715</v>
@@ -26337,16 +26337,16 @@
         <v>243544.4320175766</v>
       </c>
       <c r="J2" t="n">
-        <v>243544.4320175766</v>
+        <v>243544.4320175765</v>
       </c>
       <c r="K2" t="n">
         <v>243544.4320175766</v>
       </c>
       <c r="L2" t="n">
-        <v>243544.4320175766</v>
+        <v>243544.4320175767</v>
       </c>
       <c r="M2" t="n">
-        <v>243544.4320175766</v>
+        <v>243544.4320175765</v>
       </c>
       <c r="N2" t="n">
         <v>243544.4320175766</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322811.716957727</v>
+        <v>322811.7169577271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>377517.9820548281</v>
+        <v>377517.9820548279</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30375.88217572708</v>
+        <v>30375.88217572707</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>45087.39441464</v>
       </c>
       <c r="E4" t="n">
-        <v>6194.0960767263</v>
+        <v>6194.096076726299</v>
       </c>
       <c r="F4" t="n">
+        <v>6194.096076726298</v>
+      </c>
+      <c r="G4" t="n">
         <v>6194.096076726299</v>
       </c>
-      <c r="G4" t="n">
-        <v>6194.0960767263</v>
-      </c>
       <c r="H4" t="n">
-        <v>6194.096076726297</v>
+        <v>6194.096076726299</v>
       </c>
       <c r="I4" t="n">
-        <v>18395.72134379641</v>
+        <v>18395.72134379642</v>
       </c>
       <c r="J4" t="n">
-        <v>18395.72134379641</v>
+        <v>18395.72134379638</v>
       </c>
       <c r="K4" t="n">
         <v>18395.72134379641</v>
       </c>
       <c r="L4" t="n">
-        <v>18395.72134379641</v>
+        <v>18395.72134379643</v>
       </c>
       <c r="M4" t="n">
-        <v>18395.72134379641</v>
+        <v>18395.72134379638</v>
       </c>
       <c r="N4" t="n">
-        <v>18395.72134379645</v>
+        <v>18395.7213437964</v>
       </c>
       <c r="O4" t="n">
         <v>18395.72134379642</v>
       </c>
       <c r="P4" t="n">
-        <v>18395.72134379642</v>
+        <v>18395.72134379639</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="G5" t="n">
         <v>15182.8302675488</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.8302675488</v>
       </c>
       <c r="I5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.50108294362</v>
       </c>
       <c r="J5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.5010829436</v>
       </c>
       <c r="K5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.50108294362</v>
       </c>
       <c r="L5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.50108294362</v>
       </c>
       <c r="M5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.5010829436</v>
       </c>
       <c r="N5" t="n">
-        <v>48421.50108294363</v>
+        <v>48421.50108294361</v>
       </c>
       <c r="O5" t="n">
         <v>48421.50108294362</v>
       </c>
       <c r="P5" t="n">
-        <v>48421.50108294362</v>
+        <v>48421.50108294361</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906632</v>
+        <v>-4996.930551051584</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="E6" t="n">
-        <v>-225832.5303651305</v>
+        <v>-227044.0715813799</v>
       </c>
       <c r="F6" t="n">
-        <v>96979.18659259642</v>
+        <v>95767.64537634724</v>
       </c>
       <c r="G6" t="n">
-        <v>96979.18659259641</v>
+        <v>95767.64537634718</v>
       </c>
       <c r="H6" t="n">
-        <v>96979.18659259644</v>
+        <v>95767.64537634722</v>
       </c>
       <c r="I6" t="n">
-        <v>-200790.7724639916</v>
+        <v>-201376.372084837</v>
       </c>
       <c r="J6" t="n">
-        <v>176727.2095908366</v>
+        <v>176141.6099699908</v>
       </c>
       <c r="K6" t="n">
-        <v>176727.2095908365</v>
+        <v>176141.6099699909</v>
       </c>
       <c r="L6" t="n">
-        <v>176727.2095908366</v>
+        <v>176141.6099699909</v>
       </c>
       <c r="M6" t="n">
-        <v>146351.3274151094</v>
+        <v>145765.7277942637</v>
       </c>
       <c r="N6" t="n">
-        <v>176727.2095908366</v>
+        <v>176141.6099699909</v>
       </c>
       <c r="O6" t="n">
-        <v>176727.2095908366</v>
+        <v>176141.6099699909</v>
       </c>
       <c r="P6" t="n">
-        <v>176727.2095908365</v>
+        <v>176141.6099699909</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="H3" t="n">
         <v>356.5054615933877</v>
       </c>
       <c r="I3" t="n">
-        <v>709.6255778170005</v>
+        <v>709.6255778170004</v>
       </c>
       <c r="J3" t="n">
-        <v>709.6255778170005</v>
+        <v>709.6255778170004</v>
       </c>
       <c r="K3" t="n">
-        <v>709.6255778170005</v>
+        <v>709.6255778170004</v>
       </c>
       <c r="L3" t="n">
-        <v>709.6255778170005</v>
+        <v>709.6255778170004</v>
       </c>
       <c r="M3" t="n">
-        <v>709.6255778170005</v>
+        <v>709.6255778170004</v>
       </c>
       <c r="N3" t="n">
         <v>709.6255778170004</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G4" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.9681494495561</v>
       </c>
       <c r="J4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.9681494495558</v>
       </c>
       <c r="K4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.9681494495561</v>
       </c>
       <c r="L4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.9681494495561</v>
       </c>
       <c r="M4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.9681494495558</v>
       </c>
       <c r="N4" t="n">
-        <v>541.9681494495562</v>
+        <v>541.968149449556</v>
       </c>
       <c r="O4" t="n">
         <v>541.9681494495561</v>
       </c>
       <c r="P4" t="n">
-        <v>541.9681494495561</v>
+        <v>541.9681494495559</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>353.1201162236128</v>
+        <v>353.1201162236126</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>420.0765177914486</v>
+        <v>420.0765177914484</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M11" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N11" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O11" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P11" t="n">
         <v>206.094195010879</v>
@@ -31785,13 +31785,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T11" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U11" t="n">
         <v>0.114655022824004</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I12" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J12" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K12" t="n">
         <v>123.8251092404128</v>
       </c>
       <c r="L12" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M12" t="n">
         <v>194.2954765683963</v>
@@ -31855,25 +31855,25 @@
         <v>199.4378996889274</v>
       </c>
       <c r="O12" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P12" t="n">
         <v>146.4295734608766</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S12" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I13" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K13" t="n">
-        <v>74.69081637972941</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L13" t="n">
-        <v>95.57852981800431</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M13" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428687</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O13" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R13" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S13" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,31 +31989,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P14" t="n">
         <v>206.094195010879</v>
@@ -32022,13 +32022,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U14" t="n">
         <v>0.114655022824004</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K15" t="n">
         <v>123.8251092404128</v>
       </c>
       <c r="L15" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
         <v>194.2954765683963</v>
@@ -32092,25 +32092,25 @@
         <v>199.4378996889274</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
         <v>146.4295734608766</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I16" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972941</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800431</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M16" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428687</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O16" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R16" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,16 +32232,16 @@
         <v>14.67763440620414</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K17" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M17" t="n">
         <v>251.6552347055676</v>
@@ -32250,7 +32250,7 @@
         <v>255.7272795005514</v>
       </c>
       <c r="O17" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P17" t="n">
         <v>206.094195010879</v>
@@ -32259,13 +32259,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U17" t="n">
         <v>0.114655022824004</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I18" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404128</v>
@@ -32326,7 +32326,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O18" t="n">
         <v>182.4467148590236</v>
@@ -32335,19 +32335,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833237</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153006</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I19" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K19" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L19" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833487</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821139</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S19" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U19" t="n">
         <v>0.03506611097639883</v>
@@ -32496,13 +32496,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S20" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U20" t="n">
         <v>0.114655022824004</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I21" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K21" t="n">
         <v>123.8251092404128</v>
@@ -32563,7 +32563,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O21" t="n">
         <v>182.4467148590236</v>
@@ -32572,19 +32572,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088639</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833237</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153006</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I22" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K22" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350808</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821139</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S22" t="n">
         <v>11.20362245695941</v>
@@ -32703,7 +32703,7 @@
         <v>2.852766141977889</v>
       </c>
       <c r="H23" t="n">
-        <v>29.21589125153107</v>
+        <v>29.21589125153106</v>
       </c>
       <c r="I23" t="n">
         <v>109.9812666886027</v>
@@ -32715,34 +32715,34 @@
         <v>362.8825511326202</v>
       </c>
       <c r="L23" t="n">
-        <v>450.1878929501761</v>
+        <v>450.187892950176</v>
       </c>
       <c r="M23" t="n">
-        <v>500.9207728275754</v>
+        <v>500.9207728275753</v>
       </c>
       <c r="N23" t="n">
-        <v>509.0261946284701</v>
+        <v>509.02619462847</v>
       </c>
       <c r="O23" t="n">
-        <v>480.6590013041775</v>
+        <v>480.6590013041774</v>
       </c>
       <c r="P23" t="n">
-        <v>410.2313371740983</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q23" t="n">
-        <v>308.066649714515</v>
+        <v>308.0666497145149</v>
       </c>
       <c r="R23" t="n">
         <v>179.2000711660187</v>
       </c>
       <c r="S23" t="n">
-        <v>65.00740846032122</v>
+        <v>65.0074084603212</v>
       </c>
       <c r="T23" t="n">
-        <v>12.48798378650822</v>
+        <v>12.48798378650821</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2282212913582311</v>
+        <v>0.228221291358231</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>1.526364450398831</v>
       </c>
       <c r="H24" t="n">
-        <v>14.74146719200977</v>
+        <v>14.74146719200976</v>
       </c>
       <c r="I24" t="n">
-        <v>52.55246024399486</v>
+        <v>52.55246024399484</v>
       </c>
       <c r="J24" t="n">
-        <v>144.2079676580756</v>
+        <v>144.2079676580755</v>
       </c>
       <c r="K24" t="n">
-        <v>246.4743858347973</v>
+        <v>246.4743858347972</v>
       </c>
       <c r="L24" t="n">
-        <v>331.4152285833077</v>
+        <v>331.4152285833076</v>
       </c>
       <c r="M24" t="n">
-        <v>386.7459399102652</v>
+        <v>386.7459399102651</v>
       </c>
       <c r="N24" t="n">
-        <v>396.9819541412294</v>
+        <v>396.9819541412293</v>
       </c>
       <c r="O24" t="n">
-        <v>363.1609313192342</v>
+        <v>363.1609313192341</v>
       </c>
       <c r="P24" t="n">
         <v>291.4686642169488</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.8390831772263</v>
+        <v>194.8390831772262</v>
       </c>
       <c r="R24" t="n">
-        <v>94.76848754318361</v>
+        <v>94.7684875431836</v>
       </c>
       <c r="S24" t="n">
         <v>28.35155020806599</v>
       </c>
       <c r="T24" t="n">
-        <v>6.152319868054936</v>
+        <v>6.152319868054935</v>
       </c>
       <c r="U24" t="n">
         <v>0.1004187138420284</v>
@@ -32861,25 +32861,25 @@
         <v>1.279652681309345</v>
       </c>
       <c r="H25" t="n">
-        <v>11.37727565745946</v>
+        <v>11.37727565745945</v>
       </c>
       <c r="I25" t="n">
-        <v>38.48264608883013</v>
+        <v>38.48264608883012</v>
       </c>
       <c r="J25" t="n">
-        <v>90.47144456857069</v>
+        <v>90.47144456857067</v>
       </c>
       <c r="K25" t="n">
         <v>148.6723751557584</v>
       </c>
       <c r="L25" t="n">
-        <v>190.2494540921185</v>
+        <v>190.2494540921184</v>
       </c>
       <c r="M25" t="n">
-        <v>200.5913743983367</v>
+        <v>200.5913743983366</v>
       </c>
       <c r="N25" t="n">
-        <v>195.8217598589111</v>
+        <v>195.821759858911</v>
       </c>
       <c r="O25" t="n">
         <v>180.8730898999791</v>
@@ -32891,7 +32891,7 @@
         <v>107.1534622503671</v>
       </c>
       <c r="R25" t="n">
-        <v>57.53783783414563</v>
+        <v>57.53783783414561</v>
       </c>
       <c r="S25" t="n">
         <v>22.30085627336376</v>
@@ -32900,7 +32900,7 @@
         <v>5.467606911049018</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06979923716232798</v>
+        <v>0.06979923716232797</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>2.852766141977889</v>
       </c>
       <c r="H26" t="n">
-        <v>29.21589125153107</v>
+        <v>29.21589125153106</v>
       </c>
       <c r="I26" t="n">
         <v>109.9812666886027</v>
@@ -32952,34 +32952,34 @@
         <v>362.8825511326202</v>
       </c>
       <c r="L26" t="n">
-        <v>450.1878929501761</v>
+        <v>450.187892950176</v>
       </c>
       <c r="M26" t="n">
-        <v>500.9207728275754</v>
+        <v>500.9207728275753</v>
       </c>
       <c r="N26" t="n">
-        <v>509.0261946284701</v>
+        <v>509.02619462847</v>
       </c>
       <c r="O26" t="n">
-        <v>480.6590013041775</v>
+        <v>480.6590013041774</v>
       </c>
       <c r="P26" t="n">
-        <v>410.2313371740983</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q26" t="n">
-        <v>308.066649714515</v>
+        <v>308.0666497145149</v>
       </c>
       <c r="R26" t="n">
         <v>179.2000711660187</v>
       </c>
       <c r="S26" t="n">
-        <v>65.00740846032122</v>
+        <v>65.0074084603212</v>
       </c>
       <c r="T26" t="n">
-        <v>12.48798378650822</v>
+        <v>12.48798378650821</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2282212913582311</v>
+        <v>0.228221291358231</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>1.526364450398831</v>
       </c>
       <c r="H27" t="n">
-        <v>14.74146719200977</v>
+        <v>14.74146719200976</v>
       </c>
       <c r="I27" t="n">
-        <v>52.55246024399486</v>
+        <v>52.55246024399484</v>
       </c>
       <c r="J27" t="n">
-        <v>144.2079676580756</v>
+        <v>144.2079676580755</v>
       </c>
       <c r="K27" t="n">
-        <v>246.4743858347973</v>
+        <v>246.4743858347972</v>
       </c>
       <c r="L27" t="n">
-        <v>331.4152285833077</v>
+        <v>331.4152285833076</v>
       </c>
       <c r="M27" t="n">
-        <v>386.7459399102652</v>
+        <v>386.7459399102651</v>
       </c>
       <c r="N27" t="n">
-        <v>396.9819541412294</v>
+        <v>396.9819541412293</v>
       </c>
       <c r="O27" t="n">
-        <v>363.1609313192342</v>
+        <v>363.1609313192341</v>
       </c>
       <c r="P27" t="n">
         <v>291.4686642169488</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.8390831772263</v>
+        <v>194.8390831772262</v>
       </c>
       <c r="R27" t="n">
-        <v>94.76848754318361</v>
+        <v>94.7684875431836</v>
       </c>
       <c r="S27" t="n">
         <v>28.35155020806599</v>
       </c>
       <c r="T27" t="n">
-        <v>6.152319868054936</v>
+        <v>6.152319868054935</v>
       </c>
       <c r="U27" t="n">
         <v>0.1004187138420284</v>
@@ -33098,25 +33098,25 @@
         <v>1.279652681309345</v>
       </c>
       <c r="H28" t="n">
-        <v>11.37727565745946</v>
+        <v>11.37727565745945</v>
       </c>
       <c r="I28" t="n">
-        <v>38.48264608883013</v>
+        <v>38.48264608883012</v>
       </c>
       <c r="J28" t="n">
-        <v>90.47144456857069</v>
+        <v>90.47144456857067</v>
       </c>
       <c r="K28" t="n">
         <v>148.6723751557584</v>
       </c>
       <c r="L28" t="n">
-        <v>190.2494540921185</v>
+        <v>190.2494540921184</v>
       </c>
       <c r="M28" t="n">
-        <v>200.5913743983367</v>
+        <v>200.5913743983366</v>
       </c>
       <c r="N28" t="n">
-        <v>195.8217598589111</v>
+        <v>195.821759858911</v>
       </c>
       <c r="O28" t="n">
         <v>180.8730898999791</v>
@@ -33128,7 +33128,7 @@
         <v>107.1534622503671</v>
       </c>
       <c r="R28" t="n">
-        <v>57.53783783414563</v>
+        <v>57.53783783414561</v>
       </c>
       <c r="S28" t="n">
         <v>22.30085627336376</v>
@@ -33137,7 +33137,7 @@
         <v>5.467606911049018</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06979923716232798</v>
+        <v>0.06979923716232797</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>2.852766141977889</v>
       </c>
       <c r="H29" t="n">
-        <v>29.21589125153107</v>
+        <v>29.21589125153106</v>
       </c>
       <c r="I29" t="n">
         <v>109.9812666886027</v>
@@ -33189,34 +33189,34 @@
         <v>362.8825511326202</v>
       </c>
       <c r="L29" t="n">
-        <v>450.1878929501761</v>
+        <v>450.187892950176</v>
       </c>
       <c r="M29" t="n">
-        <v>500.9207728275754</v>
+        <v>500.9207728275753</v>
       </c>
       <c r="N29" t="n">
-        <v>509.0261946284701</v>
+        <v>509.02619462847</v>
       </c>
       <c r="O29" t="n">
-        <v>480.6590013041775</v>
+        <v>480.6590013041774</v>
       </c>
       <c r="P29" t="n">
-        <v>410.2313371740983</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q29" t="n">
-        <v>308.066649714515</v>
+        <v>308.0666497145149</v>
       </c>
       <c r="R29" t="n">
         <v>179.2000711660187</v>
       </c>
       <c r="S29" t="n">
-        <v>65.00740846032122</v>
+        <v>65.0074084603212</v>
       </c>
       <c r="T29" t="n">
-        <v>12.48798378650822</v>
+        <v>12.48798378650821</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2282212913582311</v>
+        <v>0.228221291358231</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.526364450398831</v>
       </c>
       <c r="H30" t="n">
-        <v>14.74146719200977</v>
+        <v>14.74146719200976</v>
       </c>
       <c r="I30" t="n">
-        <v>52.55246024399486</v>
+        <v>52.55246024399484</v>
       </c>
       <c r="J30" t="n">
-        <v>144.2079676580756</v>
+        <v>144.2079676580755</v>
       </c>
       <c r="K30" t="n">
-        <v>246.4743858347973</v>
+        <v>246.4743858347972</v>
       </c>
       <c r="L30" t="n">
-        <v>331.4152285833077</v>
+        <v>331.4152285833076</v>
       </c>
       <c r="M30" t="n">
-        <v>386.7459399102652</v>
+        <v>386.7459399102651</v>
       </c>
       <c r="N30" t="n">
-        <v>396.9819541412294</v>
+        <v>396.9819541412293</v>
       </c>
       <c r="O30" t="n">
-        <v>363.1609313192342</v>
+        <v>363.1609313192341</v>
       </c>
       <c r="P30" t="n">
         <v>291.4686642169488</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.8390831772263</v>
+        <v>194.8390831772262</v>
       </c>
       <c r="R30" t="n">
-        <v>94.76848754318361</v>
+        <v>94.7684875431836</v>
       </c>
       <c r="S30" t="n">
         <v>28.35155020806599</v>
       </c>
       <c r="T30" t="n">
-        <v>6.152319868054936</v>
+        <v>6.152319868054935</v>
       </c>
       <c r="U30" t="n">
         <v>0.1004187138420284</v>
@@ -33335,25 +33335,25 @@
         <v>1.279652681309345</v>
       </c>
       <c r="H31" t="n">
-        <v>11.37727565745946</v>
+        <v>11.37727565745945</v>
       </c>
       <c r="I31" t="n">
-        <v>38.48264608883013</v>
+        <v>38.48264608883012</v>
       </c>
       <c r="J31" t="n">
-        <v>90.47144456857069</v>
+        <v>90.47144456857067</v>
       </c>
       <c r="K31" t="n">
         <v>148.6723751557584</v>
       </c>
       <c r="L31" t="n">
-        <v>190.2494540921185</v>
+        <v>190.2494540921184</v>
       </c>
       <c r="M31" t="n">
-        <v>200.5913743983367</v>
+        <v>200.5913743983366</v>
       </c>
       <c r="N31" t="n">
-        <v>195.8217598589111</v>
+        <v>195.821759858911</v>
       </c>
       <c r="O31" t="n">
         <v>180.8730898999791</v>
@@ -33365,7 +33365,7 @@
         <v>107.1534622503671</v>
       </c>
       <c r="R31" t="n">
-        <v>57.53783783414563</v>
+        <v>57.53783783414561</v>
       </c>
       <c r="S31" t="n">
         <v>22.30085627336376</v>
@@ -33374,7 +33374,7 @@
         <v>5.467606911049018</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06979923716232798</v>
+        <v>0.06979923716232797</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>2.852766141977889</v>
       </c>
       <c r="H32" t="n">
-        <v>29.21589125153107</v>
+        <v>29.21589125153106</v>
       </c>
       <c r="I32" t="n">
         <v>109.9812666886027</v>
@@ -33426,34 +33426,34 @@
         <v>362.8825511326202</v>
       </c>
       <c r="L32" t="n">
-        <v>450.1878929501761</v>
+        <v>450.187892950176</v>
       </c>
       <c r="M32" t="n">
-        <v>500.9207728275754</v>
+        <v>500.9207728275753</v>
       </c>
       <c r="N32" t="n">
-        <v>509.0261946284701</v>
+        <v>509.02619462847</v>
       </c>
       <c r="O32" t="n">
-        <v>480.6590013041775</v>
+        <v>480.6590013041774</v>
       </c>
       <c r="P32" t="n">
-        <v>410.2313371740983</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q32" t="n">
-        <v>308.066649714515</v>
+        <v>308.0666497145149</v>
       </c>
       <c r="R32" t="n">
         <v>179.2000711660187</v>
       </c>
       <c r="S32" t="n">
-        <v>65.00740846032122</v>
+        <v>65.0074084603212</v>
       </c>
       <c r="T32" t="n">
-        <v>12.48798378650822</v>
+        <v>12.48798378650821</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2282212913582311</v>
+        <v>0.228221291358231</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.526364450398831</v>
       </c>
       <c r="H33" t="n">
-        <v>14.74146719200977</v>
+        <v>14.74146719200976</v>
       </c>
       <c r="I33" t="n">
-        <v>52.55246024399486</v>
+        <v>52.55246024399484</v>
       </c>
       <c r="J33" t="n">
-        <v>144.2079676580756</v>
+        <v>144.2079676580755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.4743858347973</v>
+        <v>246.4743858347972</v>
       </c>
       <c r="L33" t="n">
-        <v>331.4152285833077</v>
+        <v>331.4152285833076</v>
       </c>
       <c r="M33" t="n">
-        <v>386.7459399102652</v>
+        <v>386.7459399102651</v>
       </c>
       <c r="N33" t="n">
-        <v>396.9819541412294</v>
+        <v>396.9819541412293</v>
       </c>
       <c r="O33" t="n">
-        <v>363.1609313192342</v>
+        <v>363.1609313192341</v>
       </c>
       <c r="P33" t="n">
         <v>291.4686642169488</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.8390831772263</v>
+        <v>194.8390831772262</v>
       </c>
       <c r="R33" t="n">
-        <v>94.76848754318361</v>
+        <v>94.7684875431836</v>
       </c>
       <c r="S33" t="n">
         <v>28.35155020806599</v>
       </c>
       <c r="T33" t="n">
-        <v>6.152319868054936</v>
+        <v>6.152319868054935</v>
       </c>
       <c r="U33" t="n">
         <v>0.1004187138420284</v>
@@ -33572,25 +33572,25 @@
         <v>1.279652681309345</v>
       </c>
       <c r="H34" t="n">
-        <v>11.37727565745946</v>
+        <v>11.37727565745945</v>
       </c>
       <c r="I34" t="n">
-        <v>38.48264608883013</v>
+        <v>38.48264608883012</v>
       </c>
       <c r="J34" t="n">
-        <v>90.47144456857069</v>
+        <v>90.47144456857067</v>
       </c>
       <c r="K34" t="n">
         <v>148.6723751557584</v>
       </c>
       <c r="L34" t="n">
-        <v>190.2494540921185</v>
+        <v>190.2494540921184</v>
       </c>
       <c r="M34" t="n">
-        <v>200.5913743983367</v>
+        <v>200.5913743983366</v>
       </c>
       <c r="N34" t="n">
-        <v>195.8217598589111</v>
+        <v>195.821759858911</v>
       </c>
       <c r="O34" t="n">
         <v>180.8730898999791</v>
@@ -33602,7 +33602,7 @@
         <v>107.1534622503671</v>
       </c>
       <c r="R34" t="n">
-        <v>57.53783783414563</v>
+        <v>57.53783783414561</v>
       </c>
       <c r="S34" t="n">
         <v>22.30085627336376</v>
@@ -33611,7 +33611,7 @@
         <v>5.467606911049018</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06979923716232798</v>
+        <v>0.06979923716232797</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>2.852766141977889</v>
       </c>
       <c r="H35" t="n">
-        <v>29.21589125153107</v>
+        <v>29.21589125153106</v>
       </c>
       <c r="I35" t="n">
         <v>109.9812666886027</v>
@@ -33663,34 +33663,34 @@
         <v>362.8825511326202</v>
       </c>
       <c r="L35" t="n">
-        <v>450.1878929501761</v>
+        <v>450.187892950176</v>
       </c>
       <c r="M35" t="n">
-        <v>500.9207728275754</v>
+        <v>500.9207728275753</v>
       </c>
       <c r="N35" t="n">
-        <v>509.0261946284701</v>
+        <v>509.02619462847</v>
       </c>
       <c r="O35" t="n">
-        <v>480.6590013041775</v>
+        <v>480.6590013041774</v>
       </c>
       <c r="P35" t="n">
-        <v>410.2313371740983</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q35" t="n">
-        <v>308.066649714515</v>
+        <v>308.0666497145149</v>
       </c>
       <c r="R35" t="n">
         <v>179.2000711660187</v>
       </c>
       <c r="S35" t="n">
-        <v>65.00740846032122</v>
+        <v>65.0074084603212</v>
       </c>
       <c r="T35" t="n">
-        <v>12.48798378650822</v>
+        <v>12.48798378650821</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2282212913582311</v>
+        <v>0.228221291358231</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.526364450398831</v>
       </c>
       <c r="H36" t="n">
-        <v>14.74146719200977</v>
+        <v>14.74146719200976</v>
       </c>
       <c r="I36" t="n">
-        <v>52.55246024399486</v>
+        <v>52.55246024399484</v>
       </c>
       <c r="J36" t="n">
-        <v>144.2079676580756</v>
+        <v>144.2079676580755</v>
       </c>
       <c r="K36" t="n">
-        <v>246.4743858347973</v>
+        <v>246.4743858347972</v>
       </c>
       <c r="L36" t="n">
-        <v>331.4152285833077</v>
+        <v>331.4152285833076</v>
       </c>
       <c r="M36" t="n">
-        <v>386.7459399102652</v>
+        <v>386.7459399102651</v>
       </c>
       <c r="N36" t="n">
-        <v>396.9819541412294</v>
+        <v>396.9819541412293</v>
       </c>
       <c r="O36" t="n">
-        <v>363.1609313192342</v>
+        <v>363.1609313192341</v>
       </c>
       <c r="P36" t="n">
         <v>291.4686642169488</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.8390831772263</v>
+        <v>194.8390831772262</v>
       </c>
       <c r="R36" t="n">
-        <v>94.76848754318361</v>
+        <v>94.7684875431836</v>
       </c>
       <c r="S36" t="n">
         <v>28.35155020806599</v>
       </c>
       <c r="T36" t="n">
-        <v>6.152319868054936</v>
+        <v>6.152319868054935</v>
       </c>
       <c r="U36" t="n">
         <v>0.1004187138420284</v>
@@ -33809,25 +33809,25 @@
         <v>1.279652681309345</v>
       </c>
       <c r="H37" t="n">
-        <v>11.37727565745946</v>
+        <v>11.37727565745945</v>
       </c>
       <c r="I37" t="n">
-        <v>38.48264608883013</v>
+        <v>38.48264608883012</v>
       </c>
       <c r="J37" t="n">
-        <v>90.47144456857069</v>
+        <v>90.47144456857067</v>
       </c>
       <c r="K37" t="n">
         <v>148.6723751557584</v>
       </c>
       <c r="L37" t="n">
-        <v>190.2494540921185</v>
+        <v>190.2494540921184</v>
       </c>
       <c r="M37" t="n">
-        <v>200.5913743983367</v>
+        <v>200.5913743983366</v>
       </c>
       <c r="N37" t="n">
-        <v>195.8217598589111</v>
+        <v>195.821759858911</v>
       </c>
       <c r="O37" t="n">
         <v>180.8730898999791</v>
@@ -33839,7 +33839,7 @@
         <v>107.1534622503671</v>
       </c>
       <c r="R37" t="n">
-        <v>57.53783783414563</v>
+        <v>57.53783783414561</v>
       </c>
       <c r="S37" t="n">
         <v>22.30085627336376</v>
@@ -33848,7 +33848,7 @@
         <v>5.467606911049018</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06979923716232798</v>
+        <v>0.06979923716232797</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>480.6590013041774</v>
       </c>
       <c r="P44" t="n">
-        <v>410.2313371740994</v>
+        <v>410.2313371740982</v>
       </c>
       <c r="Q44" t="n">
         <v>308.0666497145149</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K11" t="n">
-        <v>39.24845756512403</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O11" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M12" t="n">
         <v>101.9083545190844</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O12" t="n">
-        <v>89.75915597013473</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P12" t="n">
-        <v>59.34620864156193</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.37703670508316</v>
+        <v>15.37703670508317</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="L13" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="N13" t="n">
-        <v>121.8916316581077</v>
+        <v>100.7184482927857</v>
       </c>
       <c r="O13" t="n">
-        <v>101.589680542596</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512403</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O14" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M15" t="n">
         <v>101.9083545190844</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013473</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156193</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.37703670508316</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.903490235199428</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="M16" t="n">
-        <v>35.52586934683219</v>
+        <v>116.9667172476791</v>
       </c>
       <c r="N16" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8712322498102907</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="P16" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.28908871075403</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K17" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824611</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440874</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N18" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P18" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>15.37703670508316</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="L19" t="n">
-        <v>121.8916316581077</v>
+        <v>28.04698914014635</v>
       </c>
       <c r="M19" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="N19" t="n">
+        <v>15.38237044188531</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8712322498103049</v>
+      </c>
+      <c r="P19" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="O19" t="n">
-        <v>116.9667172476791</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>57.28908871075404</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K20" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M20" t="n">
         <v>101.9301831078403</v>
@@ -36135,13 +36135,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637758</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N21" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P21" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972054</v>
+        <v>6.8961388649724</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>116.966717247679</v>
+        <v>116.9667172476791</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="O22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>124.44512240035</v>
       </c>
       <c r="K23" t="n">
-        <v>219.8241479533829</v>
+        <v>219.8241479533828</v>
       </c>
       <c r="L23" t="n">
-        <v>296.9397232196844</v>
+        <v>296.9397232196843</v>
       </c>
       <c r="M23" t="n">
         <v>351.1957212298481</v>
       </c>
       <c r="N23" t="n">
-        <v>359.9077032906861</v>
+        <v>359.907703290686</v>
       </c>
       <c r="O23" t="n">
-        <v>331.0951638800811</v>
+        <v>331.095163880081</v>
       </c>
       <c r="P23" t="n">
-        <v>259.9298899331731</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q23" t="n">
         <v>163.5679512961228</v>
       </c>
       <c r="R23" t="n">
-        <v>39.06947158683286</v>
+        <v>39.06947158683283</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.659078795787337</v>
+        <v>3.659078795787323</v>
       </c>
       <c r="J24" t="n">
-        <v>61.76351032474223</v>
+        <v>258.46552545578</v>
       </c>
       <c r="K24" t="n">
-        <v>156.8774505014639</v>
+        <v>156.8774505014638</v>
       </c>
       <c r="L24" t="n">
-        <v>241.3548817263895</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M24" t="n">
-        <v>294.3588178609533</v>
+        <v>294.3588178609532</v>
       </c>
       <c r="N24" t="n">
-        <v>311.6098412870627</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O24" t="n">
         <v>270.4733724303453</v>
       </c>
       <c r="P24" t="n">
-        <v>374.2296330075737</v>
+        <v>434.2343818388005</v>
       </c>
       <c r="Q24" t="n">
-        <v>431.5714988892369</v>
+        <v>103.8509300213122</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07680996660702988</v>
+        <v>71.09061487226749</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.39695709641162</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K25" t="n">
-        <v>231.3340328425684</v>
+        <v>231.3340328425683</v>
       </c>
       <c r="L25" t="n">
         <v>356.0349489141385</v>
       </c>
       <c r="M25" t="n">
-        <v>388.7646858511286</v>
+        <v>388.7646858511285</v>
       </c>
       <c r="N25" t="n">
-        <v>380.8617942338699</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O25" t="n">
-        <v>342.1170382522988</v>
+        <v>345.221339437058</v>
       </c>
       <c r="P25" t="n">
         <v>275.8552113392265</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.6102262605196</v>
+        <v>107.5059250757605</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>124.44512240035</v>
       </c>
       <c r="K26" t="n">
-        <v>219.8241479533829</v>
+        <v>219.8241479533828</v>
       </c>
       <c r="L26" t="n">
-        <v>296.9397232196844</v>
+        <v>296.9397232196843</v>
       </c>
       <c r="M26" t="n">
         <v>351.1957212298481</v>
       </c>
       <c r="N26" t="n">
-        <v>359.9077032906861</v>
+        <v>359.907703290686</v>
       </c>
       <c r="O26" t="n">
-        <v>331.0951638800811</v>
+        <v>331.095163880081</v>
       </c>
       <c r="P26" t="n">
-        <v>259.9298899331731</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q26" t="n">
         <v>163.5679512961228</v>
       </c>
       <c r="R26" t="n">
-        <v>39.06947158683286</v>
+        <v>39.06947158683283</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.659078795787337</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>61.76351032474223</v>
+        <v>61.7635103247422</v>
       </c>
       <c r="K27" t="n">
-        <v>156.8774505014639</v>
+        <v>330.3808629071892</v>
       </c>
       <c r="L27" t="n">
-        <v>241.3548817263895</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M27" t="n">
-        <v>541.9681494495562</v>
+        <v>294.3588178609532</v>
       </c>
       <c r="N27" t="n">
-        <v>541.9681494495562</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O27" t="n">
-        <v>290.0706351571134</v>
+        <v>270.4733724303453</v>
       </c>
       <c r="P27" t="n">
         <v>204.3852993976341</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.8509300213123</v>
+        <v>431.5714988892369</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07680996660702988</v>
+        <v>0.07680996660701567</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.29265591165262</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K28" t="n">
-        <v>231.3340328425684</v>
+        <v>231.3340328425683</v>
       </c>
       <c r="L28" t="n">
         <v>356.0349489141385</v>
       </c>
       <c r="M28" t="n">
-        <v>388.7646858511286</v>
+        <v>388.7646858511285</v>
       </c>
       <c r="N28" t="n">
-        <v>380.8617942338699</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O28" t="n">
         <v>345.221339437058</v>
       </c>
       <c r="P28" t="n">
-        <v>275.8552113392265</v>
+        <v>272.7509101544658</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.6102262605196</v>
+        <v>110.6102262605195</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>124.44512240035</v>
       </c>
       <c r="K29" t="n">
-        <v>219.8241479533829</v>
+        <v>219.8241479533828</v>
       </c>
       <c r="L29" t="n">
-        <v>296.9397232196844</v>
+        <v>296.9397232196843</v>
       </c>
       <c r="M29" t="n">
-        <v>351.1957212298487</v>
+        <v>351.1957212298481</v>
       </c>
       <c r="N29" t="n">
-        <v>359.9077032906861</v>
+        <v>359.907703290686</v>
       </c>
       <c r="O29" t="n">
-        <v>331.0951638800811</v>
+        <v>331.095163880081</v>
       </c>
       <c r="P29" t="n">
-        <v>259.9298899331731</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q29" t="n">
         <v>163.5679512961228</v>
       </c>
       <c r="R29" t="n">
-        <v>39.06947158683286</v>
+        <v>39.06947158683283</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.659078795787337</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>258.46552545578</v>
+        <v>164.2531178248086</v>
       </c>
       <c r="K30" t="n">
-        <v>156.8774505014639</v>
+        <v>156.8774505014638</v>
       </c>
       <c r="L30" t="n">
-        <v>241.3548817263895</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M30" t="n">
-        <v>294.3588178609533</v>
+        <v>294.3588178609532</v>
       </c>
       <c r="N30" t="n">
-        <v>311.6098412870627</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O30" t="n">
         <v>270.4733724303453</v>
@@ -36931,10 +36931,10 @@
         <v>204.3852993976341</v>
       </c>
       <c r="Q30" t="n">
-        <v>404.7138173681388</v>
+        <v>431.5714988892369</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07680996660702988</v>
+        <v>71.09061487226749</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.39695709641162</v>
+        <v>57.29265591165278</v>
       </c>
       <c r="K31" t="n">
-        <v>228.2297316578094</v>
+        <v>231.3340328425683</v>
       </c>
       <c r="L31" t="n">
         <v>356.0349489141385</v>
       </c>
       <c r="M31" t="n">
-        <v>388.7646858511286</v>
+        <v>388.7646858511285</v>
       </c>
       <c r="N31" t="n">
-        <v>380.8617942338699</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O31" t="n">
         <v>345.221339437058</v>
@@ -37010,7 +37010,7 @@
         <v>275.8552113392265</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.6102262605196</v>
+        <v>110.6102262605195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.4451224003505</v>
+        <v>124.44512240035</v>
       </c>
       <c r="K32" t="n">
-        <v>219.8241479533829</v>
+        <v>219.8241479533837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.9397232196844</v>
+        <v>296.9397232196843</v>
       </c>
       <c r="M32" t="n">
         <v>351.1957212298481</v>
       </c>
       <c r="N32" t="n">
-        <v>359.9077032906861</v>
+        <v>359.907703290686</v>
       </c>
       <c r="O32" t="n">
-        <v>331.0951638800811</v>
+        <v>331.095163880081</v>
       </c>
       <c r="P32" t="n">
-        <v>259.9298899331731</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q32" t="n">
         <v>163.5679512961228</v>
       </c>
       <c r="R32" t="n">
-        <v>39.06947158683286</v>
+        <v>39.06947158683283</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.659078795787323</v>
       </c>
       <c r="J33" t="n">
-        <v>61.76351032474223</v>
+        <v>61.7635103247422</v>
       </c>
       <c r="K33" t="n">
-        <v>156.8774505014639</v>
+        <v>326.7217841114032</v>
       </c>
       <c r="L33" t="n">
-        <v>241.3548817263895</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M33" t="n">
-        <v>294.3588178609533</v>
+        <v>294.3588178609532</v>
       </c>
       <c r="N33" t="n">
-        <v>541.3390455415035</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O33" t="n">
-        <v>541.9681494495562</v>
+        <v>270.4733724303453</v>
       </c>
       <c r="P33" t="n">
         <v>204.3852993976341</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.8509300213123</v>
+        <v>431.5714988892369</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07680996660702988</v>
+        <v>0.07680996660701567</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.39695709641162</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K34" t="n">
-        <v>228.2297316578094</v>
+        <v>231.3340328425683</v>
       </c>
       <c r="L34" t="n">
         <v>356.0349489141385</v>
       </c>
       <c r="M34" t="n">
-        <v>388.7646858511286</v>
+        <v>388.7646858511285</v>
       </c>
       <c r="N34" t="n">
-        <v>380.8617942338699</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O34" t="n">
         <v>345.221339437058</v>
@@ -37247,7 +37247,7 @@
         <v>275.8552113392265</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.6102262605196</v>
+        <v>107.5059250757605</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>124.44512240035</v>
       </c>
       <c r="K35" t="n">
-        <v>219.8241479533829</v>
+        <v>219.8241479533828</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9397232196844</v>
+        <v>296.9397232196843</v>
       </c>
       <c r="M35" t="n">
         <v>351.1957212298481</v>
       </c>
       <c r="N35" t="n">
-        <v>359.9077032906861</v>
+        <v>359.907703290686</v>
       </c>
       <c r="O35" t="n">
-        <v>331.0951638800811</v>
+        <v>331.095163880081</v>
       </c>
       <c r="P35" t="n">
-        <v>259.9298899331731</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q35" t="n">
         <v>163.5679512961228</v>
       </c>
       <c r="R35" t="n">
-        <v>39.06947158683286</v>
+        <v>39.06947158683283</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.659078795787337</v>
+        <v>3.659078795787323</v>
       </c>
       <c r="J36" t="n">
-        <v>231.6078439346817</v>
+        <v>231.6078439346802</v>
       </c>
       <c r="K36" t="n">
-        <v>156.8774505014639</v>
+        <v>156.8774505014638</v>
       </c>
       <c r="L36" t="n">
-        <v>241.3548817263895</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M36" t="n">
-        <v>294.3588178609533</v>
+        <v>294.3588178609532</v>
       </c>
       <c r="N36" t="n">
-        <v>311.6098412870627</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O36" t="n">
         <v>270.4733724303453</v>
@@ -37408,7 +37408,7 @@
         <v>431.5714988892369</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07680996660702988</v>
+        <v>0.07680996660701567</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.39695709641162</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K37" t="n">
-        <v>231.3340328425684</v>
+        <v>231.3340328425683</v>
       </c>
       <c r="L37" t="n">
         <v>356.0349489141385</v>
       </c>
       <c r="M37" t="n">
-        <v>388.7646858511286</v>
+        <v>388.7646858511285</v>
       </c>
       <c r="N37" t="n">
-        <v>380.8617942338699</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O37" t="n">
-        <v>342.1170382522988</v>
+        <v>345.221339437058</v>
       </c>
       <c r="P37" t="n">
         <v>275.8552113392265</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.6102262605196</v>
+        <v>107.5059250757591</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.4451224003513</v>
+        <v>124.44512240035</v>
       </c>
       <c r="K38" t="n">
         <v>219.8241479533828</v>
@@ -37621,7 +37621,7 @@
         <v>3.659078795787323</v>
       </c>
       <c r="J39" t="n">
-        <v>258.46552545578</v>
+        <v>61.7635103247422</v>
       </c>
       <c r="K39" t="n">
         <v>156.8774505014638</v>
@@ -37633,19 +37633,19 @@
         <v>294.3588178609532</v>
       </c>
       <c r="N39" t="n">
-        <v>541.9681494495562</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O39" t="n">
-        <v>340.9779516146787</v>
+        <v>270.4733724303453</v>
       </c>
       <c r="P39" t="n">
-        <v>204.3852993976341</v>
+        <v>303.2158281019129</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.8509300213122</v>
+        <v>431.5714988892369</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07680996660701567</v>
+        <v>71.09061487226749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>60.3969570964116</v>
       </c>
       <c r="K40" t="n">
-        <v>231.3340328425683</v>
+        <v>228.2297316578086</v>
       </c>
       <c r="L40" t="n">
         <v>356.0349489141385</v>
@@ -37712,7 +37712,7 @@
         <v>388.7646858511285</v>
       </c>
       <c r="N40" t="n">
-        <v>377.7574930491111</v>
+        <v>380.8617942338698</v>
       </c>
       <c r="O40" t="n">
         <v>345.221339437058</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.659078795787323</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>258.46552545578</v>
       </c>
       <c r="K42" t="n">
-        <v>156.8774505014638</v>
+        <v>461.3994166440781</v>
       </c>
       <c r="L42" t="n">
         <v>241.3548817263894</v>
@@ -37870,7 +37870,7 @@
         <v>294.3588178609532</v>
       </c>
       <c r="N42" t="n">
-        <v>541.9681494495561</v>
+        <v>311.6098412870626</v>
       </c>
       <c r="O42" t="n">
         <v>270.4733724303453</v>
@@ -37879,7 +37879,7 @@
         <v>204.3852993976341</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.3555092056455</v>
+        <v>103.8509300213122</v>
       </c>
       <c r="R42" t="n">
         <v>0.07680996660701567</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>57.29265591165278</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K43" t="n">
         <v>231.3340328425683</v>
       </c>
       <c r="L43" t="n">
-        <v>356.0349489141385</v>
+        <v>352.9306477293796</v>
       </c>
       <c r="M43" t="n">
         <v>388.7646858511285</v>
@@ -38034,7 +38034,7 @@
         <v>331.095163880081</v>
       </c>
       <c r="P44" t="n">
-        <v>259.9298899331742</v>
+        <v>259.929889933173</v>
       </c>
       <c r="Q44" t="n">
         <v>163.5679512961228</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.659078795787323</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>61.7635103247422</v>
+        <v>258.46552545578</v>
       </c>
       <c r="K45" t="n">
         <v>156.8774505014638</v>
       </c>
       <c r="L45" t="n">
-        <v>401.336934152332</v>
+        <v>241.3548817263894</v>
       </c>
       <c r="M45" t="n">
         <v>294.3588178609532</v>
@@ -38113,10 +38113,10 @@
         <v>270.4733724303453</v>
       </c>
       <c r="P45" t="n">
-        <v>541.9681494495561</v>
+        <v>204.3852993976341</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.8509300213122</v>
+        <v>408.3728961639254</v>
       </c>
       <c r="R45" t="n">
         <v>0.07680996660701567</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>57.29265591165278</v>
+        <v>60.3969570964116</v>
       </c>
       <c r="K46" t="n">
         <v>231.3340328425683</v>
@@ -38186,7 +38186,7 @@
         <v>388.7646858511285</v>
       </c>
       <c r="N46" t="n">
-        <v>380.8617942338698</v>
+        <v>377.7574930491101</v>
       </c>
       <c r="O46" t="n">
         <v>345.221339437058</v>
